--- a/_data/ni/ni7879/individueel_eindstand_dworp_12_7879.xlsx
+++ b/_data/ni/ni7879/individueel_eindstand_dworp_12_7879.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="14355" windowHeight="12870"/>
-    <workbookView xWindow="14355" yWindow="-15" windowWidth="14385" windowHeight="12870" activeTab="11"/>
+    <workbookView xWindow="14355" yWindow="-15" windowWidth="14385" windowHeight="12870" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="177">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -305,9 +305,6 @@
     <t>Maes E</t>
   </si>
   <si>
-    <t>Van den Heeden A</t>
-  </si>
-  <si>
     <t>Coorevits Y</t>
   </si>
   <si>
@@ -533,12 +530,6 @@
     <t>matchpunten: w 3 - g 2 - v 1 - vf 0</t>
   </si>
   <si>
-    <t>17?</t>
-  </si>
-  <si>
-    <t>13?</t>
-  </si>
-  <si>
     <t>402 Jean Jaurès Gent 5</t>
   </si>
   <si>
@@ -546,6 +537,38 @@
   </si>
   <si>
     <t>4E</t>
+  </si>
+  <si>
+    <t>Van den Heede A</t>
+  </si>
+  <si>
+    <t>15?</t>
+  </si>
+  <si>
+    <t>12?</t>
+  </si>
+  <si>
+    <t>19?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dworp 2 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rooster identiek aan Eddy zijn notities</t>
+    </r>
+  </si>
+  <si>
+    <t>5? of 81?</t>
+  </si>
+  <si>
+    <t>11? of 77?</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1202,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1413,11 +1436,14 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1759,11 +1785,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C5" s="63"/>
       <c r="D5" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="63"/>
       <c r="F5" s="63"/>
@@ -1774,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1791,13 +1817,13 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="72"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="74">
         <v>0</v>
@@ -1805,7 +1831,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="75">
         <v>0</v>
@@ -1813,7 +1839,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="76">
         <v>1</v>
@@ -1898,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -1956,7 +1982,7 @@
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -1984,7 +2010,7 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -2012,7 +2038,7 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -2040,7 +2066,7 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J8" s="18"/>
     </row>
@@ -2121,7 +2147,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2179,7 +2205,7 @@
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15" s="18"/>
     </row>
@@ -2207,7 +2233,7 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J16" s="18"/>
     </row>
@@ -2219,7 +2245,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="18">
         <v>1173</v>
@@ -2235,7 +2261,7 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J17" s="18"/>
     </row>
@@ -2263,7 +2289,7 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J18" s="18"/>
     </row>
@@ -2611,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2661,7 +2687,7 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -2689,7 +2715,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -2717,7 +2743,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -2745,7 +2771,7 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -2834,7 +2860,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2884,7 +2910,7 @@
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="10">
@@ -2912,7 +2938,7 @@
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -2928,7 +2954,7 @@
         <v>52</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="18">
         <v>1173</v>
@@ -2940,7 +2966,7 @@
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="10">
@@ -2968,7 +2994,7 @@
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12">
@@ -3295,7 +3321,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3906,9 +3932,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="R28" sqref="R28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3937,13 +3961,13 @@
         <v>14</v>
       </c>
       <c r="S2" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF2" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="AF2" s="78" t="s">
+      <c r="AS2" s="77" t="s">
         <v>166</v>
-      </c>
-      <c r="AS2" s="77" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:56" s="43" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
@@ -4224,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="34">
         <v>7</v>
@@ -4420,7 +4444,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="34">
         <v>6</v>
@@ -4616,7 +4640,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="34">
         <v>9</v>
@@ -4812,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="34">
         <v>4</v>
@@ -5400,7 +5424,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="34">
         <v>6</v>
@@ -5596,7 +5620,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="34">
         <v>6</v>
@@ -5792,7 +5816,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="34">
         <v>6</v>
@@ -6355,7 +6379,7 @@
     </row>
     <row r="16" spans="1:56" s="43" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="59" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="S16" s="60"/>
       <c r="T16" s="60"/>
@@ -6452,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>37</v>
@@ -6648,7 +6672,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="34">
         <v>9</v>
@@ -6844,7 +6868,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="34">
         <v>6</v>
@@ -7040,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="34">
         <v>7</v>
@@ -7455,7 +7479,7 @@
       <c r="I23" s="34">
         <v>10</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="91">
         <v>6</v>
       </c>
       <c r="K23" s="34">
@@ -7468,9 +7492,8 @@
         <v>12</v>
       </c>
       <c r="N23" s="34"/>
-      <c r="O23" s="35">
-        <f t="shared" si="6"/>
-        <v>81</v>
+      <c r="O23" s="90">
+        <v>80</v>
       </c>
       <c r="P23" s="36">
         <f>IF(Info!B$10=0,0,SUM(S23:AD23))+IF(Info!B$11=0,0,2*SUM(S23:AD23))+IF(Info!B$12=0,0,SUM(AS23:BD23))</f>
@@ -7480,7 +7503,9 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="R23" s="45"/>
+      <c r="R23" s="89" t="s">
+        <v>175</v>
+      </c>
       <c r="S23" s="47">
         <f>IF(C23="","",IF(C23&gt;$H18,1,IF(C23=$H18,0.5,0)))</f>
         <v>0</v>
@@ -7628,7 +7653,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="34">
         <v>8</v>
@@ -7669,15 +7694,14 @@
         <v>80</v>
       </c>
       <c r="P24" s="88">
-        <f>IF(Info!B$10=0,0,SUM(S24:AD24))+IF(Info!B$11=0,0,2*SUM(S24:AD24))+IF(Info!B$12=0,0,SUM(AS24:BD24))</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="36">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="R24" s="90" t="s">
-        <v>168</v>
+      <c r="R24" s="89" t="s">
+        <v>173</v>
       </c>
       <c r="S24" s="47">
         <f>IF(C24="","",IF(C24&gt;$I18,1,IF(C24=$I18,0.5,0)))</f>
@@ -7826,7 +7850,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C25" s="34">
         <v>4</v>
@@ -7843,7 +7867,7 @@
       <c r="G25" s="34">
         <v>9</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="91">
         <v>10</v>
       </c>
       <c r="I25" s="34">
@@ -7862,9 +7886,8 @@
         <v>11</v>
       </c>
       <c r="N25" s="34"/>
-      <c r="O25" s="35">
-        <f t="shared" si="6"/>
-        <v>77</v>
+      <c r="O25" s="90">
+        <v>78</v>
       </c>
       <c r="P25" s="36">
         <f>IF(Info!B$10=0,0,SUM(S25:AD25))+IF(Info!B$11=0,0,2*SUM(S25:AD25))+IF(Info!B$12=0,0,SUM(AS25:BD25))</f>
@@ -7874,7 +7897,9 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="R25" s="89"/>
+      <c r="R25" s="89" t="s">
+        <v>176</v>
+      </c>
       <c r="S25" s="47">
         <f>IF(C25="","",IF(C25&gt;$J18,1,IF(C25=$J18,0.5,0)))</f>
         <v>0</v>
@@ -8022,7 +8047,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="34">
         <v>5</v>
@@ -8063,15 +8088,14 @@
         <v>69</v>
       </c>
       <c r="P26" s="88">
-        <f>IF(Info!B$10=0,0,SUM(S26:AD26))+IF(Info!B$11=0,0,2*SUM(S26:AD26))+IF(Info!B$12=0,0,SUM(AS26:BD26))</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q26" s="36">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="R26" s="90" t="s">
-        <v>169</v>
+      <c r="R26" s="89" t="s">
+        <v>171</v>
       </c>
       <c r="S26" s="47">
         <f>IF(C26="","",IF(C26&gt;$K18,1,IF(C26=$K18,0.5,0)))</f>
@@ -8261,15 +8285,14 @@
         <v>56</v>
       </c>
       <c r="P27" s="88">
-        <f>IF(Info!B$10=0,0,SUM(S27:AD27))+IF(Info!B$11=0,0,2*SUM(S27:AD27))+IF(Info!B$12=0,0,SUM(AS27:BD27))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="36">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="R27" s="90" t="s">
-        <v>169</v>
+      <c r="R27" s="89" t="s">
+        <v>172</v>
       </c>
       <c r="S27" s="47">
         <f>IF(C27="","",IF(C27&gt;$L18,1,IF(C27=$L18,0.5,0)))</f>
@@ -8418,7 +8441,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="34">
         <v>3</v>
@@ -16551,7 +16574,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -17776,7 +17799,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -17999,7 +18022,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -18450,7 +18473,9 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18712,7 +18737,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -18726,7 +18751,7 @@
       </c>
       <c r="J13" s="1"/>
       <c r="L13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -18821,7 +18846,7 @@
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="10">
@@ -18837,7 +18862,7 @@
         <v>52</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J17" s="18">
         <v>1173</v>
@@ -18849,7 +18874,7 @@
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12">
@@ -19215,7 +19240,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -19265,7 +19290,7 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -19293,7 +19318,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -19321,7 +19346,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -19349,7 +19374,7 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -19438,7 +19463,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -19488,7 +19513,7 @@
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="10">
@@ -19516,7 +19541,7 @@
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -19544,7 +19569,7 @@
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="10">
@@ -19572,7 +19597,7 @@
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12">
@@ -19950,7 +19975,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -20008,7 +20033,7 @@
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -20036,7 +20061,7 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -20064,7 +20089,7 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -20092,7 +20117,7 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="18"/>
     </row>
@@ -20177,7 +20202,7 @@
       </c>
       <c r="J13" s="1"/>
       <c r="L13" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" s="63"/>
     </row>
@@ -20219,7 +20244,7 @@
         <v>57282</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="18">
         <v>1245</v>
@@ -20235,7 +20260,7 @@
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J15" s="18"/>
     </row>
@@ -20263,7 +20288,7 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J16" s="18"/>
     </row>
@@ -20291,7 +20316,7 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J17" s="18"/>
     </row>
@@ -20303,7 +20328,7 @@
         <v>64327</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="18">
         <v>807</v>
@@ -20319,7 +20344,7 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J18" s="18"/>
     </row>
@@ -20667,7 +20692,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -20717,7 +20742,7 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -20745,7 +20770,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -20773,7 +20798,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -20801,7 +20826,7 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -20890,7 +20915,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -20940,7 +20965,7 @@
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="10">
@@ -20968,7 +20993,7 @@
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -20996,7 +21021,7 @@
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="10">
@@ -21024,7 +21049,7 @@
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12">
@@ -21402,7 +21427,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -21460,7 +21485,7 @@
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -21488,7 +21513,7 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -21516,7 +21541,7 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -21544,7 +21569,7 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="18"/>
     </row>
@@ -21625,7 +21650,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -21683,7 +21708,7 @@
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J15" s="18"/>
     </row>
@@ -21711,7 +21736,7 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J16" s="18"/>
     </row>
@@ -21739,11 +21764,11 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" s="18"/>
       <c r="L17" s="63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
@@ -21775,7 +21800,7 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J18" s="18"/>
     </row>

--- a/_data/ni/ni7879/individueel_eindstand_dworp_12_7879.xlsx
+++ b/_data/ni/ni7879/individueel_eindstand_dworp_12_7879.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="14355" windowHeight="12870"/>
-    <workbookView xWindow="14355" yWindow="-15" windowWidth="14385" windowHeight="12870" activeTab="12"/>
+    <workbookView xWindow="14355" yWindow="-15" windowWidth="14385" windowHeight="12870"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -1749,7 +1749,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3932,7 +3932,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18473,8 +18473,8 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="C1" workbookViewId="1">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18850,13 +18850,13 @@
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>52</v>
@@ -18878,13 +18878,13 @@
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="19">
         <v>76317</v>
@@ -18905,13 +18905,13 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
+        <v>10</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="13">
         <v>6</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="13">
-        <v>10</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">

--- a/_data/ni/ni7879/individueel_eindstand_dworp_12_7879.xlsx
+++ b/_data/ni/ni7879/individueel_eindstand_dworp_12_7879.xlsx
@@ -1,11 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meneer\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C96F42E-6ED5-43DE-9771-A190AFDDAF88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14355" windowHeight="12870"/>
-    <workbookView xWindow="14355" yWindow="-15" windowWidth="14385" windowHeight="12870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="7812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-12" windowWidth="11508" windowHeight="7824" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -22,12 +28,12 @@
     <sheet name="R11" sheetId="14" r:id="rId12"/>
     <sheet name="Ranking" sheetId="17" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="205">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -207,9 +213,6 @@
   </si>
   <si>
     <t>124 Deurne 3</t>
-  </si>
-  <si>
-    <t>243 Leuven 2</t>
   </si>
   <si>
     <t>Geens J</t>
@@ -570,16 +573,104 @@
   <si>
     <t>11? of 77?</t>
   </si>
+  <si>
+    <t>243 LV Leuven 2</t>
+  </si>
+  <si>
+    <t>za 29 jul. 2017 21:02</t>
+  </si>
+  <si>
+    <t>Eddy</t>
+  </si>
+  <si>
+    <t>Initiële versie</t>
+  </si>
+  <si>
+    <t>zo 30 jul. 2017 21:39</t>
+  </si>
+  <si>
+    <t>Pieter</t>
+  </si>
+  <si>
+    <t>Ronde 4: Dworp 2: fout: score tegen '438 deinze 1' niet identiek aan score in kruistabel</t>
+  </si>
+  <si>
+    <t>Voorts bij 3 tegenstanders van Dworp 2 problemen met de matchpunten: ze komen niet overeen met de berekeningen van excel.</t>
+  </si>
+  <si>
+    <t>do 3 aug. 2017 07:31</t>
+  </si>
+  <si>
+    <t>Deze opmerking begrijp ik niet; de uitslag is 6-10 zowel in de individuele resultaten als in de optelling als in de kruistabel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Terloops zie ik wel dat Maton speelde tegen Van den Heede A. Schrap je die laatste letter -n?</t>
+  </si>
+  <si>
+    <t>Pieter, hier gaan we niet uit geraken zonder hulp of een natte vinger. Ik heb de uitslagen in het rooster nagezien, die stemmen overeen met mijn nota’s. Dat is mijn enige bron, ik heb ze voor jou ingescand.</t>
+  </si>
+  <si>
+    <t>(Kan pion f je verder helpen??)</t>
+  </si>
+  <si>
+    <t>Het probleem is nog groter dan je dacht want de optelling van de bordpunten klopt al evenmin, ook niet in mijn nota’s. Hier moeten we concessies doen en er het beste van zien te maken.</t>
+  </si>
+  <si>
+    <t>Ik stel voor de eindrangschikking te behouden, omdat iedereen daar meer belangstelling voor heeft dan voor de details van de ploeguitslagen.</t>
+  </si>
+  <si>
+    <t>Concreet, als je Ruy Lopez – Jean Jaurès 10-6 verandert in 11-5, klopt de optelling; Ruy Lopez heeft nu 80 punten en Jean Jaurès 78 punten.</t>
+  </si>
+  <si>
+    <t>En dan komen we tot het probleem van de matchpunten. Idealiter zouden we vier MP moeten kwijt geraken (2 bij Gera  en 2 bij Dmonde) en 1 voor Post Gent bijwinnen.</t>
+  </si>
+  <si>
+    <t>Dat zie ik niet goed gebeuren. Gelukkig zijn dat weer details waar niemand zal over struikelen. Laat het gewoon zo…</t>
+  </si>
+  <si>
+    <t>Heb jij betere ideeën na het puzzelen met de bijlage? Laat het mij gerust weten.</t>
+  </si>
+  <si>
+    <t>do 3 aug. 2017 14:18</t>
+  </si>
+  <si>
+    <t>Som individueel: Deinze - Dworp: 6-10</t>
+  </si>
+  <si>
+    <t>Kruistabel: Deinze - Dworp: 10-6</t>
+  </si>
+  <si>
+    <t>Van Den Heede: zal ik aanpasen</t>
+  </si>
+  <si>
+    <t>Le Pion F start pas vanaf 83-84.</t>
+  </si>
+  <si>
+    <t>Ik heb de tabel van Dworp 2 volledig identiek gemaakt aan jouw oude notities, elk getal waar twijfel over bestaat in het geel gezet en de alternatieve cijfers met vraagtekens rechts naast het rooster gezet.</t>
+  </si>
+  <si>
+    <t>Lijkt me ook het verstandigste.</t>
+  </si>
+  <si>
+    <t>do 3 aug. 2017 18:49</t>
+  </si>
+  <si>
+    <t>Ha ja, nu zie zelfs ik het probleem.  Wij hebben verloren. Wil je de twee kolommen van plaats verwisselen zoals hieronder?</t>
+  </si>
+  <si>
+    <t>Ons verstandig vonnis zal nog eens te pas komen. Ik heb in het seizoen 83-84 de grootste moeite om aanvaardbare cijfers te publiceren.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +752,14 @@
       <b/>
       <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1202,7 +1301,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1445,11 +1544,12 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standaard 2" xfId="1"/>
-    <cellStyle name="Standaard_Blad2" xfId="2"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standaard_Blad2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1457,12 +1557,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1504,7 +1607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1536,9 +1639,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1570,6 +1691,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1745,26 +1884,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +1911,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>38</v>
       </c>
@@ -1780,119 +1919,265 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="63"/>
       <c r="D5" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="63"/>
       <c r="F5" s="63"/>
       <c r="G5" s="63"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="69"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="67" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="70"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="72"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="72"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="73" t="s">
+      <c r="B10" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="73" t="s">
+      <c r="B11" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="73" t="s">
-        <v>163</v>
-      </c>
       <c r="B12" s="76">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="C14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" t="s">
-        <v>68</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
@@ -1903,12 +2188,12 @@
         <v>28925</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -1924,11 +2209,11 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1958,7 +2243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1982,11 +2267,11 @@
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2010,11 +2295,11 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2038,11 +2323,11 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -2066,11 +2351,11 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -2086,7 +2371,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -2102,7 +2387,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -2126,12 +2411,12 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -2147,11 +2432,11 @@
         <v>11</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2181,7 +2466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -2205,11 +2490,11 @@
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -2233,11 +2518,11 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -2245,7 +2530,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="18">
         <v>1173</v>
@@ -2261,11 +2546,11 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -2289,11 +2574,11 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -2317,12 +2602,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -2338,7 +2623,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -2384,7 +2669,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -2400,7 +2685,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -2416,7 +2701,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -2432,7 +2717,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -2452,12 +2737,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1">
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -2473,7 +2758,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2503,7 +2788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -2519,7 +2804,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -2535,7 +2820,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -2551,7 +2836,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -2567,7 +2852,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -2594,28 +2879,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
@@ -2626,18 +2911,18 @@
         <v>28939</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2651,7 +2936,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2681,13 +2966,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -2709,13 +2994,13 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -2737,13 +3022,13 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -2765,13 +3050,13 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -2793,7 +3078,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -2809,7 +3094,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -2825,7 +3110,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16" t="str">
@@ -2849,18 +3134,18 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2874,7 +3159,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2904,13 +3189,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="10">
@@ -2932,13 +3217,13 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -2954,19 +3239,19 @@
         <v>52</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J16" s="18">
         <v>1173</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="10">
@@ -2988,13 +3273,13 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12">
@@ -3010,13 +3295,13 @@
         <v>93073</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="18">
         <v>1136</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16" t="str">
@@ -3040,12 +3325,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -3061,7 +3346,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -3091,7 +3376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -3107,7 +3392,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -3123,7 +3408,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -3139,7 +3424,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -3155,7 +3440,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -3175,12 +3460,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1">
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -3196,7 +3481,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -3226,7 +3511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -3242,7 +3527,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -3258,7 +3543,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -3274,7 +3559,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -3290,7 +3575,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -3317,28 +3602,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
@@ -3347,12 +3632,12 @@
       </c>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -3368,7 +3653,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3398,7 +3683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3414,7 +3699,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3430,7 +3715,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3446,7 +3731,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3462,7 +3747,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3478,7 +3763,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3494,7 +3779,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16" t="str">
@@ -3514,12 +3799,12 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -3535,7 +3820,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -3565,7 +3850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -3581,7 +3866,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -3597,7 +3882,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -3613,7 +3898,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -3629,7 +3914,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16" t="str">
@@ -3649,12 +3934,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -3670,7 +3955,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -3700,7 +3985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -3716,7 +4001,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -3732,7 +4017,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -3748,7 +4033,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -3764,7 +4049,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -3784,12 +4069,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1">
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -3805,7 +4090,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -3835,7 +4120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -3851,7 +4136,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -3867,7 +4152,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -3883,7 +4168,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -3899,7 +4184,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -3926,7 +4211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:BD280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3934,43 +4219,43 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="24" customWidth="1"/>
     <col min="3" max="14" width="4" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" style="24" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="24"/>
+    <col min="15" max="15" width="5.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" style="24" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="24"/>
     <col min="19" max="30" width="4" style="25" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="24" customWidth="1"/>
+    <col min="31" max="31" width="9.109375" style="24" customWidth="1"/>
     <col min="32" max="43" width="4" style="24" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" style="24"/>
-    <col min="45" max="56" width="3.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="9.140625" style="24"/>
+    <col min="44" max="44" width="9.109375" style="24"/>
+    <col min="45" max="56" width="3.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="21">
+    <row r="1" spans="1:56" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="19.5" thickBot="1">
+    <row r="2" spans="1:56" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF2" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="AF2" s="78" t="s">
+      <c r="AS2" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="AS2" s="77" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" s="43" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="3" spans="1:56" s="43" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>32</v>
       </c>
@@ -4047,7 +4332,7 @@
       <c r="AC3" s="44"/>
       <c r="AD3" s="44"/>
     </row>
-    <row r="4" spans="1:56" s="43" customFormat="1">
+    <row r="4" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>1</v>
       </c>
@@ -4243,12 +4528,12 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:56" s="43" customFormat="1">
+    <row r="5" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>2</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="34">
         <v>7</v>
@@ -4439,12 +4724,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:56" s="43" customFormat="1">
+    <row r="6" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>3</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="34">
         <v>6</v>
@@ -4635,12 +4920,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:56" s="43" customFormat="1">
+    <row r="7" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="34">
         <v>9</v>
@@ -4831,12 +5116,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:56" s="43" customFormat="1">
+    <row r="8" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="34">
         <v>4</v>
@@ -5027,12 +5312,12 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:56" s="43" customFormat="1">
+    <row r="9" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>6</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="C9" s="34">
         <v>4</v>
@@ -5223,7 +5508,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:56" s="43" customFormat="1">
+    <row r="10" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>7</v>
       </c>
@@ -5419,12 +5704,12 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:56" s="43" customFormat="1">
+    <row r="11" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>8</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="34">
         <v>6</v>
@@ -5615,12 +5900,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:56" s="43" customFormat="1">
+    <row r="12" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>9</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="34">
         <v>6</v>
@@ -5811,12 +6096,12 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:56" s="43" customFormat="1">
+    <row r="13" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>10</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="34">
         <v>6</v>
@@ -6007,12 +6292,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:56" s="43" customFormat="1">
+    <row r="14" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>11</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="34">
         <v>6</v>
@@ -6203,7 +6488,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:56" s="43" customFormat="1" ht="15.75" thickBot="1">
+    <row r="15" spans="1:56" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37">
         <v>12</v>
       </c>
@@ -6377,9 +6662,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:56" s="43" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:56" s="43" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S16" s="60"/>
       <c r="T16" s="60"/>
@@ -6394,7 +6679,7 @@
       <c r="AC16" s="60"/>
       <c r="AD16" s="60"/>
     </row>
-    <row r="17" spans="1:56" s="43" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:56" s="43" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>32</v>
       </c>
@@ -6471,12 +6756,12 @@
       <c r="AC17" s="44"/>
       <c r="AD17" s="44"/>
     </row>
-    <row r="18" spans="1:56" s="43" customFormat="1">
+    <row r="18" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>1</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>37</v>
@@ -6667,12 +6952,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:56" s="43" customFormat="1">
+    <row r="19" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>2</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="34">
         <v>9</v>
@@ -6863,12 +7148,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:56" s="43" customFormat="1">
+    <row r="20" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>3</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="34">
         <v>6</v>
@@ -7059,12 +7344,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:56" s="43" customFormat="1">
+    <row r="21" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>4</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="34">
         <v>7</v>
@@ -7255,7 +7540,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:56" s="43" customFormat="1">
+    <row r="22" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>5</v>
       </c>
@@ -7451,12 +7736,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:56" s="43" customFormat="1">
+    <row r="23" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>6</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="34">
         <v>5</v>
@@ -7504,7 +7789,7 @@
         <v>10</v>
       </c>
       <c r="R23" s="89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S23" s="47">
         <f>IF(C23="","",IF(C23&gt;$H18,1,IF(C23=$H18,0.5,0)))</f>
@@ -7648,12 +7933,12 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:56" s="43" customFormat="1">
+    <row r="24" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>7</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" s="34">
         <v>8</v>
@@ -7701,7 +7986,7 @@
         <v>10</v>
       </c>
       <c r="R24" s="89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S24" s="47">
         <f>IF(C24="","",IF(C24&gt;$I18,1,IF(C24=$I18,0.5,0)))</f>
@@ -7845,12 +8130,12 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:56" s="43" customFormat="1">
+    <row r="25" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>8</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="34">
         <v>4</v>
@@ -7898,7 +8183,7 @@
         <v>10</v>
       </c>
       <c r="R25" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S25" s="47">
         <f>IF(C25="","",IF(C25&gt;$J18,1,IF(C25=$J18,0.5,0)))</f>
@@ -8042,12 +8327,12 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:56" s="43" customFormat="1">
+    <row r="26" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>9</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="34">
         <v>5</v>
@@ -8095,7 +8380,7 @@
         <v>10</v>
       </c>
       <c r="R26" s="89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S26" s="47">
         <f>IF(C26="","",IF(C26&gt;$K18,1,IF(C26=$K18,0.5,0)))</f>
@@ -8239,7 +8524,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:56" s="43" customFormat="1">
+    <row r="27" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>10</v>
       </c>
@@ -8292,7 +8577,7 @@
         <v>10</v>
       </c>
       <c r="R27" s="89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S27" s="47">
         <f>IF(C27="","",IF(C27&gt;$L18,1,IF(C27=$L18,0.5,0)))</f>
@@ -8436,12 +8721,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:56" s="43" customFormat="1">
+    <row r="28" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <v>11</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="34">
         <v>3</v>
@@ -8632,7 +8917,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:56" s="43" customFormat="1" ht="15.75" thickBot="1">
+    <row r="29" spans="1:56" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37">
         <v>12</v>
       </c>
@@ -8806,7 +9091,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:56" s="43" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:56" s="43" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="59" t="s">
         <v>16</v>
       </c>
@@ -8823,7 +9108,7 @@
       <c r="AC30" s="60"/>
       <c r="AD30" s="60"/>
     </row>
-    <row r="31" spans="1:56" s="43" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:56" s="43" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>32</v>
       </c>
@@ -8900,7 +9185,7 @@
       <c r="AC31" s="44"/>
       <c r="AD31" s="44"/>
     </row>
-    <row r="32" spans="1:56" s="43" customFormat="1">
+    <row r="32" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>1</v>
       </c>
@@ -9074,7 +9359,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:56" s="43" customFormat="1">
+    <row r="33" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
         <v>2</v>
       </c>
@@ -9248,7 +9533,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:56" s="43" customFormat="1">
+    <row r="34" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <v>3</v>
       </c>
@@ -9422,7 +9707,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:56" s="43" customFormat="1">
+    <row r="35" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
         <v>4</v>
       </c>
@@ -9596,7 +9881,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:56" s="43" customFormat="1">
+    <row r="36" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <v>5</v>
       </c>
@@ -9770,7 +10055,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:56" s="43" customFormat="1">
+    <row r="37" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <v>6</v>
       </c>
@@ -9944,7 +10229,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:56" s="43" customFormat="1">
+    <row r="38" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <v>7</v>
       </c>
@@ -10118,7 +10403,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:56" s="43" customFormat="1">
+    <row r="39" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
         <v>8</v>
       </c>
@@ -10292,7 +10577,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:56" s="43" customFormat="1">
+    <row r="40" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <v>9</v>
       </c>
@@ -10466,7 +10751,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:56" s="43" customFormat="1">
+    <row r="41" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
         <v>10</v>
       </c>
@@ -10640,7 +10925,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:56" s="43" customFormat="1">
+    <row r="42" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>11</v>
       </c>
@@ -10814,7 +11099,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:56" s="43" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:56" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="37">
         <v>12</v>
       </c>
@@ -10988,7 +11273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:56" s="43" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:56" s="43" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="59" t="s">
         <v>17</v>
       </c>
@@ -11005,7 +11290,7 @@
       <c r="AC44" s="60"/>
       <c r="AD44" s="60"/>
     </row>
-    <row r="45" spans="1:56" s="43" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:56" s="43" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>32</v>
       </c>
@@ -11082,7 +11367,7 @@
       <c r="AC45" s="44"/>
       <c r="AD45" s="44"/>
     </row>
-    <row r="46" spans="1:56" s="43" customFormat="1">
+    <row r="46" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="31">
         <v>1</v>
       </c>
@@ -11256,7 +11541,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:56" s="43" customFormat="1">
+    <row r="47" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="31">
         <v>2</v>
       </c>
@@ -11430,7 +11715,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:56" s="43" customFormat="1">
+    <row r="48" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="31">
         <v>3</v>
       </c>
@@ -11604,7 +11889,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:56" s="43" customFormat="1">
+    <row r="49" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
         <v>4</v>
       </c>
@@ -11778,7 +12063,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:56" s="43" customFormat="1">
+    <row r="50" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="31">
         <v>5</v>
       </c>
@@ -11952,7 +12237,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:56" s="43" customFormat="1">
+    <row r="51" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="31">
         <v>6</v>
       </c>
@@ -12126,7 +12411,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:56" s="43" customFormat="1">
+    <row r="52" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="31">
         <v>7</v>
       </c>
@@ -12300,7 +12585,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:56" s="43" customFormat="1">
+    <row r="53" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="31">
         <v>8</v>
       </c>
@@ -12474,7 +12759,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:56" s="43" customFormat="1">
+    <row r="54" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="31">
         <v>9</v>
       </c>
@@ -12648,7 +12933,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:56" s="43" customFormat="1">
+    <row r="55" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="31">
         <v>10</v>
       </c>
@@ -12822,7 +13107,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:56" s="43" customFormat="1">
+    <row r="56" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="31">
         <v>11</v>
       </c>
@@ -12996,7 +13281,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:56" s="43" customFormat="1" ht="15.75" thickBot="1">
+    <row r="57" spans="1:56" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="37">
         <v>12</v>
       </c>
@@ -13170,7 +13455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:56" s="43" customFormat="1" ht="15.75" thickTop="1">
+    <row r="58" spans="1:56" s="43" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="S58" s="60"/>
       <c r="T58" s="60"/>
       <c r="U58" s="60"/>
@@ -13184,7 +13469,7 @@
       <c r="AC58" s="60"/>
       <c r="AD58" s="60"/>
     </row>
-    <row r="59" spans="1:56" s="43" customFormat="1">
+    <row r="59" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S59" s="60"/>
       <c r="T59" s="60"/>
       <c r="U59" s="60"/>
@@ -13198,7 +13483,7 @@
       <c r="AC59" s="60"/>
       <c r="AD59" s="60"/>
     </row>
-    <row r="60" spans="1:56" s="43" customFormat="1">
+    <row r="60" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S60" s="60"/>
       <c r="T60" s="60"/>
       <c r="U60" s="60"/>
@@ -13212,7 +13497,7 @@
       <c r="AC60" s="60"/>
       <c r="AD60" s="60"/>
     </row>
-    <row r="61" spans="1:56" s="43" customFormat="1">
+    <row r="61" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S61" s="60"/>
       <c r="T61" s="60"/>
       <c r="U61" s="60"/>
@@ -13226,7 +13511,7 @@
       <c r="AC61" s="60"/>
       <c r="AD61" s="60"/>
     </row>
-    <row r="62" spans="1:56" s="43" customFormat="1">
+    <row r="62" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S62" s="60"/>
       <c r="T62" s="60"/>
       <c r="U62" s="60"/>
@@ -13240,7 +13525,7 @@
       <c r="AC62" s="60"/>
       <c r="AD62" s="60"/>
     </row>
-    <row r="63" spans="1:56" s="43" customFormat="1">
+    <row r="63" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S63" s="60"/>
       <c r="T63" s="60"/>
       <c r="U63" s="60"/>
@@ -13254,7 +13539,7 @@
       <c r="AC63" s="60"/>
       <c r="AD63" s="60"/>
     </row>
-    <row r="64" spans="1:56" s="43" customFormat="1">
+    <row r="64" spans="1:56" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S64" s="60"/>
       <c r="T64" s="60"/>
       <c r="U64" s="60"/>
@@ -13268,7 +13553,7 @@
       <c r="AC64" s="60"/>
       <c r="AD64" s="60"/>
     </row>
-    <row r="65" spans="19:30" s="43" customFormat="1">
+    <row r="65" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S65" s="60"/>
       <c r="T65" s="60"/>
       <c r="U65" s="60"/>
@@ -13282,7 +13567,7 @@
       <c r="AC65" s="60"/>
       <c r="AD65" s="60"/>
     </row>
-    <row r="66" spans="19:30" s="43" customFormat="1">
+    <row r="66" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S66" s="60"/>
       <c r="T66" s="60"/>
       <c r="U66" s="60"/>
@@ -13296,7 +13581,7 @@
       <c r="AC66" s="60"/>
       <c r="AD66" s="60"/>
     </row>
-    <row r="67" spans="19:30" s="43" customFormat="1">
+    <row r="67" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S67" s="60"/>
       <c r="T67" s="60"/>
       <c r="U67" s="60"/>
@@ -13310,7 +13595,7 @@
       <c r="AC67" s="60"/>
       <c r="AD67" s="60"/>
     </row>
-    <row r="68" spans="19:30" s="43" customFormat="1">
+    <row r="68" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S68" s="60"/>
       <c r="T68" s="60"/>
       <c r="U68" s="60"/>
@@ -13324,7 +13609,7 @@
       <c r="AC68" s="60"/>
       <c r="AD68" s="60"/>
     </row>
-    <row r="69" spans="19:30" s="43" customFormat="1">
+    <row r="69" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S69" s="60"/>
       <c r="T69" s="60"/>
       <c r="U69" s="60"/>
@@ -13338,7 +13623,7 @@
       <c r="AC69" s="60"/>
       <c r="AD69" s="60"/>
     </row>
-    <row r="70" spans="19:30" s="43" customFormat="1">
+    <row r="70" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S70" s="60"/>
       <c r="T70" s="60"/>
       <c r="U70" s="60"/>
@@ -13352,7 +13637,7 @@
       <c r="AC70" s="60"/>
       <c r="AD70" s="60"/>
     </row>
-    <row r="71" spans="19:30" s="43" customFormat="1">
+    <row r="71" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S71" s="60"/>
       <c r="T71" s="60"/>
       <c r="U71" s="60"/>
@@ -13366,7 +13651,7 @@
       <c r="AC71" s="60"/>
       <c r="AD71" s="60"/>
     </row>
-    <row r="72" spans="19:30" s="43" customFormat="1">
+    <row r="72" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S72" s="60"/>
       <c r="T72" s="60"/>
       <c r="U72" s="60"/>
@@ -13380,7 +13665,7 @@
       <c r="AC72" s="60"/>
       <c r="AD72" s="60"/>
     </row>
-    <row r="73" spans="19:30" s="43" customFormat="1">
+    <row r="73" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S73" s="60"/>
       <c r="T73" s="60"/>
       <c r="U73" s="60"/>
@@ -13394,7 +13679,7 @@
       <c r="AC73" s="60"/>
       <c r="AD73" s="60"/>
     </row>
-    <row r="74" spans="19:30" s="43" customFormat="1">
+    <row r="74" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S74" s="60"/>
       <c r="T74" s="60"/>
       <c r="U74" s="60"/>
@@ -13408,7 +13693,7 @@
       <c r="AC74" s="60"/>
       <c r="AD74" s="60"/>
     </row>
-    <row r="75" spans="19:30" s="43" customFormat="1">
+    <row r="75" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S75" s="60"/>
       <c r="T75" s="60"/>
       <c r="U75" s="60"/>
@@ -13422,7 +13707,7 @@
       <c r="AC75" s="60"/>
       <c r="AD75" s="60"/>
     </row>
-    <row r="76" spans="19:30" s="43" customFormat="1">
+    <row r="76" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S76" s="60"/>
       <c r="T76" s="60"/>
       <c r="U76" s="60"/>
@@ -13436,7 +13721,7 @@
       <c r="AC76" s="60"/>
       <c r="AD76" s="60"/>
     </row>
-    <row r="77" spans="19:30" s="43" customFormat="1">
+    <row r="77" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S77" s="60"/>
       <c r="T77" s="60"/>
       <c r="U77" s="60"/>
@@ -13450,7 +13735,7 @@
       <c r="AC77" s="60"/>
       <c r="AD77" s="60"/>
     </row>
-    <row r="78" spans="19:30" s="43" customFormat="1">
+    <row r="78" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S78" s="60"/>
       <c r="T78" s="60"/>
       <c r="U78" s="60"/>
@@ -13464,7 +13749,7 @@
       <c r="AC78" s="60"/>
       <c r="AD78" s="60"/>
     </row>
-    <row r="79" spans="19:30" s="43" customFormat="1">
+    <row r="79" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S79" s="60"/>
       <c r="T79" s="60"/>
       <c r="U79" s="60"/>
@@ -13478,7 +13763,7 @@
       <c r="AC79" s="60"/>
       <c r="AD79" s="60"/>
     </row>
-    <row r="80" spans="19:30" s="43" customFormat="1">
+    <row r="80" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S80" s="60"/>
       <c r="T80" s="60"/>
       <c r="U80" s="60"/>
@@ -13492,7 +13777,7 @@
       <c r="AC80" s="60"/>
       <c r="AD80" s="60"/>
     </row>
-    <row r="81" spans="19:30" s="43" customFormat="1">
+    <row r="81" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S81" s="60"/>
       <c r="T81" s="60"/>
       <c r="U81" s="60"/>
@@ -13506,7 +13791,7 @@
       <c r="AC81" s="60"/>
       <c r="AD81" s="60"/>
     </row>
-    <row r="82" spans="19:30" s="43" customFormat="1">
+    <row r="82" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S82" s="60"/>
       <c r="T82" s="60"/>
       <c r="U82" s="60"/>
@@ -13520,7 +13805,7 @@
       <c r="AC82" s="60"/>
       <c r="AD82" s="60"/>
     </row>
-    <row r="83" spans="19:30" s="43" customFormat="1">
+    <row r="83" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S83" s="60"/>
       <c r="T83" s="60"/>
       <c r="U83" s="60"/>
@@ -13534,7 +13819,7 @@
       <c r="AC83" s="60"/>
       <c r="AD83" s="60"/>
     </row>
-    <row r="84" spans="19:30" s="43" customFormat="1">
+    <row r="84" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S84" s="60"/>
       <c r="T84" s="60"/>
       <c r="U84" s="60"/>
@@ -13548,7 +13833,7 @@
       <c r="AC84" s="60"/>
       <c r="AD84" s="60"/>
     </row>
-    <row r="85" spans="19:30" s="43" customFormat="1">
+    <row r="85" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S85" s="60"/>
       <c r="T85" s="60"/>
       <c r="U85" s="60"/>
@@ -13562,7 +13847,7 @@
       <c r="AC85" s="60"/>
       <c r="AD85" s="60"/>
     </row>
-    <row r="86" spans="19:30" s="43" customFormat="1">
+    <row r="86" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S86" s="60"/>
       <c r="T86" s="60"/>
       <c r="U86" s="60"/>
@@ -13576,7 +13861,7 @@
       <c r="AC86" s="60"/>
       <c r="AD86" s="60"/>
     </row>
-    <row r="87" spans="19:30" s="43" customFormat="1">
+    <row r="87" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S87" s="60"/>
       <c r="T87" s="60"/>
       <c r="U87" s="60"/>
@@ -13590,7 +13875,7 @@
       <c r="AC87" s="60"/>
       <c r="AD87" s="60"/>
     </row>
-    <row r="88" spans="19:30" s="43" customFormat="1">
+    <row r="88" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S88" s="60"/>
       <c r="T88" s="60"/>
       <c r="U88" s="60"/>
@@ -13604,7 +13889,7 @@
       <c r="AC88" s="60"/>
       <c r="AD88" s="60"/>
     </row>
-    <row r="89" spans="19:30" s="43" customFormat="1">
+    <row r="89" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S89" s="60"/>
       <c r="T89" s="60"/>
       <c r="U89" s="60"/>
@@ -13618,7 +13903,7 @@
       <c r="AC89" s="60"/>
       <c r="AD89" s="60"/>
     </row>
-    <row r="90" spans="19:30" s="43" customFormat="1">
+    <row r="90" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S90" s="60"/>
       <c r="T90" s="60"/>
       <c r="U90" s="60"/>
@@ -13632,7 +13917,7 @@
       <c r="AC90" s="60"/>
       <c r="AD90" s="60"/>
     </row>
-    <row r="91" spans="19:30" s="43" customFormat="1">
+    <row r="91" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S91" s="60"/>
       <c r="T91" s="60"/>
       <c r="U91" s="60"/>
@@ -13646,7 +13931,7 @@
       <c r="AC91" s="60"/>
       <c r="AD91" s="60"/>
     </row>
-    <row r="92" spans="19:30" s="43" customFormat="1">
+    <row r="92" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S92" s="60"/>
       <c r="T92" s="60"/>
       <c r="U92" s="60"/>
@@ -13660,7 +13945,7 @@
       <c r="AC92" s="60"/>
       <c r="AD92" s="60"/>
     </row>
-    <row r="93" spans="19:30" s="43" customFormat="1">
+    <row r="93" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S93" s="60"/>
       <c r="T93" s="60"/>
       <c r="U93" s="60"/>
@@ -13674,7 +13959,7 @@
       <c r="AC93" s="60"/>
       <c r="AD93" s="60"/>
     </row>
-    <row r="94" spans="19:30" s="43" customFormat="1">
+    <row r="94" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S94" s="60"/>
       <c r="T94" s="60"/>
       <c r="U94" s="60"/>
@@ -13688,7 +13973,7 @@
       <c r="AC94" s="60"/>
       <c r="AD94" s="60"/>
     </row>
-    <row r="95" spans="19:30" s="43" customFormat="1">
+    <row r="95" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S95" s="60"/>
       <c r="T95" s="60"/>
       <c r="U95" s="60"/>
@@ -13702,7 +13987,7 @@
       <c r="AC95" s="60"/>
       <c r="AD95" s="60"/>
     </row>
-    <row r="96" spans="19:30" s="43" customFormat="1">
+    <row r="96" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S96" s="60"/>
       <c r="T96" s="60"/>
       <c r="U96" s="60"/>
@@ -13716,7 +14001,7 @@
       <c r="AC96" s="60"/>
       <c r="AD96" s="60"/>
     </row>
-    <row r="97" spans="19:30" s="43" customFormat="1">
+    <row r="97" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S97" s="60"/>
       <c r="T97" s="60"/>
       <c r="U97" s="60"/>
@@ -13730,7 +14015,7 @@
       <c r="AC97" s="60"/>
       <c r="AD97" s="60"/>
     </row>
-    <row r="98" spans="19:30" s="43" customFormat="1">
+    <row r="98" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S98" s="60"/>
       <c r="T98" s="60"/>
       <c r="U98" s="60"/>
@@ -13744,7 +14029,7 @@
       <c r="AC98" s="60"/>
       <c r="AD98" s="60"/>
     </row>
-    <row r="99" spans="19:30" s="43" customFormat="1">
+    <row r="99" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S99" s="60"/>
       <c r="T99" s="60"/>
       <c r="U99" s="60"/>
@@ -13758,7 +14043,7 @@
       <c r="AC99" s="60"/>
       <c r="AD99" s="60"/>
     </row>
-    <row r="100" spans="19:30" s="43" customFormat="1">
+    <row r="100" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S100" s="60"/>
       <c r="T100" s="60"/>
       <c r="U100" s="60"/>
@@ -13772,7 +14057,7 @@
       <c r="AC100" s="60"/>
       <c r="AD100" s="60"/>
     </row>
-    <row r="101" spans="19:30" s="43" customFormat="1">
+    <row r="101" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S101" s="60"/>
       <c r="T101" s="60"/>
       <c r="U101" s="60"/>
@@ -13786,7 +14071,7 @@
       <c r="AC101" s="60"/>
       <c r="AD101" s="60"/>
     </row>
-    <row r="102" spans="19:30" s="43" customFormat="1">
+    <row r="102" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S102" s="60"/>
       <c r="T102" s="60"/>
       <c r="U102" s="60"/>
@@ -13800,7 +14085,7 @@
       <c r="AC102" s="60"/>
       <c r="AD102" s="60"/>
     </row>
-    <row r="103" spans="19:30" s="43" customFormat="1">
+    <row r="103" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S103" s="60"/>
       <c r="T103" s="60"/>
       <c r="U103" s="60"/>
@@ -13814,7 +14099,7 @@
       <c r="AC103" s="60"/>
       <c r="AD103" s="60"/>
     </row>
-    <row r="104" spans="19:30" s="43" customFormat="1">
+    <row r="104" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S104" s="60"/>
       <c r="T104" s="60"/>
       <c r="U104" s="60"/>
@@ -13828,7 +14113,7 @@
       <c r="AC104" s="60"/>
       <c r="AD104" s="60"/>
     </row>
-    <row r="105" spans="19:30" s="43" customFormat="1">
+    <row r="105" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S105" s="60"/>
       <c r="T105" s="60"/>
       <c r="U105" s="60"/>
@@ -13842,7 +14127,7 @@
       <c r="AC105" s="60"/>
       <c r="AD105" s="60"/>
     </row>
-    <row r="106" spans="19:30" s="43" customFormat="1">
+    <row r="106" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S106" s="60"/>
       <c r="T106" s="60"/>
       <c r="U106" s="60"/>
@@ -13856,7 +14141,7 @@
       <c r="AC106" s="60"/>
       <c r="AD106" s="60"/>
     </row>
-    <row r="107" spans="19:30" s="43" customFormat="1">
+    <row r="107" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S107" s="60"/>
       <c r="T107" s="60"/>
       <c r="U107" s="60"/>
@@ -13870,7 +14155,7 @@
       <c r="AC107" s="60"/>
       <c r="AD107" s="60"/>
     </row>
-    <row r="108" spans="19:30" s="43" customFormat="1">
+    <row r="108" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S108" s="60"/>
       <c r="T108" s="60"/>
       <c r="U108" s="60"/>
@@ -13884,7 +14169,7 @@
       <c r="AC108" s="60"/>
       <c r="AD108" s="60"/>
     </row>
-    <row r="109" spans="19:30" s="43" customFormat="1">
+    <row r="109" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S109" s="60"/>
       <c r="T109" s="60"/>
       <c r="U109" s="60"/>
@@ -13898,7 +14183,7 @@
       <c r="AC109" s="60"/>
       <c r="AD109" s="60"/>
     </row>
-    <row r="110" spans="19:30" s="43" customFormat="1">
+    <row r="110" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S110" s="60"/>
       <c r="T110" s="60"/>
       <c r="U110" s="60"/>
@@ -13912,7 +14197,7 @@
       <c r="AC110" s="60"/>
       <c r="AD110" s="60"/>
     </row>
-    <row r="111" spans="19:30" s="43" customFormat="1">
+    <row r="111" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S111" s="60"/>
       <c r="T111" s="60"/>
       <c r="U111" s="60"/>
@@ -13926,7 +14211,7 @@
       <c r="AC111" s="60"/>
       <c r="AD111" s="60"/>
     </row>
-    <row r="112" spans="19:30" s="43" customFormat="1">
+    <row r="112" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S112" s="60"/>
       <c r="T112" s="60"/>
       <c r="U112" s="60"/>
@@ -13940,7 +14225,7 @@
       <c r="AC112" s="60"/>
       <c r="AD112" s="60"/>
     </row>
-    <row r="113" spans="19:30" s="43" customFormat="1">
+    <row r="113" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S113" s="60"/>
       <c r="T113" s="60"/>
       <c r="U113" s="60"/>
@@ -13954,7 +14239,7 @@
       <c r="AC113" s="60"/>
       <c r="AD113" s="60"/>
     </row>
-    <row r="114" spans="19:30" s="43" customFormat="1">
+    <row r="114" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S114" s="60"/>
       <c r="T114" s="60"/>
       <c r="U114" s="60"/>
@@ -13968,7 +14253,7 @@
       <c r="AC114" s="60"/>
       <c r="AD114" s="60"/>
     </row>
-    <row r="115" spans="19:30" s="43" customFormat="1">
+    <row r="115" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S115" s="60"/>
       <c r="T115" s="60"/>
       <c r="U115" s="60"/>
@@ -13982,7 +14267,7 @@
       <c r="AC115" s="60"/>
       <c r="AD115" s="60"/>
     </row>
-    <row r="116" spans="19:30" s="43" customFormat="1">
+    <row r="116" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S116" s="60"/>
       <c r="T116" s="60"/>
       <c r="U116" s="60"/>
@@ -13996,7 +14281,7 @@
       <c r="AC116" s="60"/>
       <c r="AD116" s="60"/>
     </row>
-    <row r="117" spans="19:30" s="43" customFormat="1">
+    <row r="117" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S117" s="60"/>
       <c r="T117" s="60"/>
       <c r="U117" s="60"/>
@@ -14010,7 +14295,7 @@
       <c r="AC117" s="60"/>
       <c r="AD117" s="60"/>
     </row>
-    <row r="118" spans="19:30" s="43" customFormat="1">
+    <row r="118" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S118" s="60"/>
       <c r="T118" s="60"/>
       <c r="U118" s="60"/>
@@ -14024,7 +14309,7 @@
       <c r="AC118" s="60"/>
       <c r="AD118" s="60"/>
     </row>
-    <row r="119" spans="19:30" s="43" customFormat="1">
+    <row r="119" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S119" s="60"/>
       <c r="T119" s="60"/>
       <c r="U119" s="60"/>
@@ -14038,7 +14323,7 @@
       <c r="AC119" s="60"/>
       <c r="AD119" s="60"/>
     </row>
-    <row r="120" spans="19:30" s="43" customFormat="1">
+    <row r="120" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S120" s="60"/>
       <c r="T120" s="60"/>
       <c r="U120" s="60"/>
@@ -14052,7 +14337,7 @@
       <c r="AC120" s="60"/>
       <c r="AD120" s="60"/>
     </row>
-    <row r="121" spans="19:30" s="43" customFormat="1">
+    <row r="121" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S121" s="60"/>
       <c r="T121" s="60"/>
       <c r="U121" s="60"/>
@@ -14066,7 +14351,7 @@
       <c r="AC121" s="60"/>
       <c r="AD121" s="60"/>
     </row>
-    <row r="122" spans="19:30" s="43" customFormat="1">
+    <row r="122" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S122" s="60"/>
       <c r="T122" s="60"/>
       <c r="U122" s="60"/>
@@ -14080,7 +14365,7 @@
       <c r="AC122" s="60"/>
       <c r="AD122" s="60"/>
     </row>
-    <row r="123" spans="19:30" s="43" customFormat="1">
+    <row r="123" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S123" s="60"/>
       <c r="T123" s="60"/>
       <c r="U123" s="60"/>
@@ -14094,7 +14379,7 @@
       <c r="AC123" s="60"/>
       <c r="AD123" s="60"/>
     </row>
-    <row r="124" spans="19:30" s="43" customFormat="1">
+    <row r="124" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S124" s="60"/>
       <c r="T124" s="60"/>
       <c r="U124" s="60"/>
@@ -14108,7 +14393,7 @@
       <c r="AC124" s="60"/>
       <c r="AD124" s="60"/>
     </row>
-    <row r="125" spans="19:30" s="43" customFormat="1">
+    <row r="125" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S125" s="60"/>
       <c r="T125" s="60"/>
       <c r="U125" s="60"/>
@@ -14122,7 +14407,7 @@
       <c r="AC125" s="60"/>
       <c r="AD125" s="60"/>
     </row>
-    <row r="126" spans="19:30" s="43" customFormat="1">
+    <row r="126" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S126" s="60"/>
       <c r="T126" s="60"/>
       <c r="U126" s="60"/>
@@ -14136,7 +14421,7 @@
       <c r="AC126" s="60"/>
       <c r="AD126" s="60"/>
     </row>
-    <row r="127" spans="19:30" s="43" customFormat="1">
+    <row r="127" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S127" s="60"/>
       <c r="T127" s="60"/>
       <c r="U127" s="60"/>
@@ -14150,7 +14435,7 @@
       <c r="AC127" s="60"/>
       <c r="AD127" s="60"/>
     </row>
-    <row r="128" spans="19:30" s="43" customFormat="1">
+    <row r="128" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S128" s="60"/>
       <c r="T128" s="60"/>
       <c r="U128" s="60"/>
@@ -14164,7 +14449,7 @@
       <c r="AC128" s="60"/>
       <c r="AD128" s="60"/>
     </row>
-    <row r="129" spans="19:30" s="43" customFormat="1">
+    <row r="129" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S129" s="60"/>
       <c r="T129" s="60"/>
       <c r="U129" s="60"/>
@@ -14178,7 +14463,7 @@
       <c r="AC129" s="60"/>
       <c r="AD129" s="60"/>
     </row>
-    <row r="130" spans="19:30" s="43" customFormat="1">
+    <row r="130" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S130" s="60"/>
       <c r="T130" s="60"/>
       <c r="U130" s="60"/>
@@ -14192,7 +14477,7 @@
       <c r="AC130" s="60"/>
       <c r="AD130" s="60"/>
     </row>
-    <row r="131" spans="19:30" s="43" customFormat="1">
+    <row r="131" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S131" s="60"/>
       <c r="T131" s="60"/>
       <c r="U131" s="60"/>
@@ -14206,7 +14491,7 @@
       <c r="AC131" s="60"/>
       <c r="AD131" s="60"/>
     </row>
-    <row r="132" spans="19:30" s="43" customFormat="1">
+    <row r="132" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S132" s="60"/>
       <c r="T132" s="60"/>
       <c r="U132" s="60"/>
@@ -14220,7 +14505,7 @@
       <c r="AC132" s="60"/>
       <c r="AD132" s="60"/>
     </row>
-    <row r="133" spans="19:30" s="43" customFormat="1">
+    <row r="133" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S133" s="60"/>
       <c r="T133" s="60"/>
       <c r="U133" s="60"/>
@@ -14234,7 +14519,7 @@
       <c r="AC133" s="60"/>
       <c r="AD133" s="60"/>
     </row>
-    <row r="134" spans="19:30" s="43" customFormat="1">
+    <row r="134" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S134" s="60"/>
       <c r="T134" s="60"/>
       <c r="U134" s="60"/>
@@ -14248,7 +14533,7 @@
       <c r="AC134" s="60"/>
       <c r="AD134" s="60"/>
     </row>
-    <row r="135" spans="19:30" s="43" customFormat="1">
+    <row r="135" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S135" s="60"/>
       <c r="T135" s="60"/>
       <c r="U135" s="60"/>
@@ -14262,7 +14547,7 @@
       <c r="AC135" s="60"/>
       <c r="AD135" s="60"/>
     </row>
-    <row r="136" spans="19:30" s="43" customFormat="1">
+    <row r="136" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S136" s="60"/>
       <c r="T136" s="60"/>
       <c r="U136" s="60"/>
@@ -14276,7 +14561,7 @@
       <c r="AC136" s="60"/>
       <c r="AD136" s="60"/>
     </row>
-    <row r="137" spans="19:30" s="43" customFormat="1">
+    <row r="137" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S137" s="60"/>
       <c r="T137" s="60"/>
       <c r="U137" s="60"/>
@@ -14290,7 +14575,7 @@
       <c r="AC137" s="60"/>
       <c r="AD137" s="60"/>
     </row>
-    <row r="138" spans="19:30" s="43" customFormat="1">
+    <row r="138" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S138" s="60"/>
       <c r="T138" s="60"/>
       <c r="U138" s="60"/>
@@ -14304,7 +14589,7 @@
       <c r="AC138" s="60"/>
       <c r="AD138" s="60"/>
     </row>
-    <row r="139" spans="19:30" s="43" customFormat="1">
+    <row r="139" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S139" s="60"/>
       <c r="T139" s="60"/>
       <c r="U139" s="60"/>
@@ -14318,7 +14603,7 @@
       <c r="AC139" s="60"/>
       <c r="AD139" s="60"/>
     </row>
-    <row r="140" spans="19:30" s="43" customFormat="1">
+    <row r="140" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S140" s="60"/>
       <c r="T140" s="60"/>
       <c r="U140" s="60"/>
@@ -14332,7 +14617,7 @@
       <c r="AC140" s="60"/>
       <c r="AD140" s="60"/>
     </row>
-    <row r="141" spans="19:30" s="43" customFormat="1">
+    <row r="141" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S141" s="60"/>
       <c r="T141" s="60"/>
       <c r="U141" s="60"/>
@@ -14346,7 +14631,7 @@
       <c r="AC141" s="60"/>
       <c r="AD141" s="60"/>
     </row>
-    <row r="142" spans="19:30" s="43" customFormat="1">
+    <row r="142" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S142" s="60"/>
       <c r="T142" s="60"/>
       <c r="U142" s="60"/>
@@ -14360,7 +14645,7 @@
       <c r="AC142" s="60"/>
       <c r="AD142" s="60"/>
     </row>
-    <row r="143" spans="19:30" s="43" customFormat="1">
+    <row r="143" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S143" s="60"/>
       <c r="T143" s="60"/>
       <c r="U143" s="60"/>
@@ -14374,7 +14659,7 @@
       <c r="AC143" s="60"/>
       <c r="AD143" s="60"/>
     </row>
-    <row r="144" spans="19:30" s="43" customFormat="1">
+    <row r="144" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S144" s="60"/>
       <c r="T144" s="60"/>
       <c r="U144" s="60"/>
@@ -14388,7 +14673,7 @@
       <c r="AC144" s="60"/>
       <c r="AD144" s="60"/>
     </row>
-    <row r="145" spans="19:30" s="43" customFormat="1">
+    <row r="145" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S145" s="60"/>
       <c r="T145" s="60"/>
       <c r="U145" s="60"/>
@@ -14402,7 +14687,7 @@
       <c r="AC145" s="60"/>
       <c r="AD145" s="60"/>
     </row>
-    <row r="146" spans="19:30" s="43" customFormat="1">
+    <row r="146" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S146" s="60"/>
       <c r="T146" s="60"/>
       <c r="U146" s="60"/>
@@ -14416,7 +14701,7 @@
       <c r="AC146" s="60"/>
       <c r="AD146" s="60"/>
     </row>
-    <row r="147" spans="19:30" s="43" customFormat="1">
+    <row r="147" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S147" s="60"/>
       <c r="T147" s="60"/>
       <c r="U147" s="60"/>
@@ -14430,7 +14715,7 @@
       <c r="AC147" s="60"/>
       <c r="AD147" s="60"/>
     </row>
-    <row r="148" spans="19:30" s="43" customFormat="1">
+    <row r="148" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S148" s="60"/>
       <c r="T148" s="60"/>
       <c r="U148" s="60"/>
@@ -14444,7 +14729,7 @@
       <c r="AC148" s="60"/>
       <c r="AD148" s="60"/>
     </row>
-    <row r="149" spans="19:30" s="43" customFormat="1">
+    <row r="149" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S149" s="60"/>
       <c r="T149" s="60"/>
       <c r="U149" s="60"/>
@@ -14458,7 +14743,7 @@
       <c r="AC149" s="60"/>
       <c r="AD149" s="60"/>
     </row>
-    <row r="150" spans="19:30" s="43" customFormat="1">
+    <row r="150" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S150" s="60"/>
       <c r="T150" s="60"/>
       <c r="U150" s="60"/>
@@ -14472,7 +14757,7 @@
       <c r="AC150" s="60"/>
       <c r="AD150" s="60"/>
     </row>
-    <row r="151" spans="19:30" s="43" customFormat="1">
+    <row r="151" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S151" s="60"/>
       <c r="T151" s="60"/>
       <c r="U151" s="60"/>
@@ -14486,7 +14771,7 @@
       <c r="AC151" s="60"/>
       <c r="AD151" s="60"/>
     </row>
-    <row r="152" spans="19:30" s="43" customFormat="1">
+    <row r="152" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S152" s="60"/>
       <c r="T152" s="60"/>
       <c r="U152" s="60"/>
@@ -14500,7 +14785,7 @@
       <c r="AC152" s="60"/>
       <c r="AD152" s="60"/>
     </row>
-    <row r="153" spans="19:30" s="43" customFormat="1">
+    <row r="153" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S153" s="60"/>
       <c r="T153" s="60"/>
       <c r="U153" s="60"/>
@@ -14514,7 +14799,7 @@
       <c r="AC153" s="60"/>
       <c r="AD153" s="60"/>
     </row>
-    <row r="154" spans="19:30" s="43" customFormat="1">
+    <row r="154" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S154" s="60"/>
       <c r="T154" s="60"/>
       <c r="U154" s="60"/>
@@ -14528,7 +14813,7 @@
       <c r="AC154" s="60"/>
       <c r="AD154" s="60"/>
     </row>
-    <row r="155" spans="19:30" s="43" customFormat="1">
+    <row r="155" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S155" s="60"/>
       <c r="T155" s="60"/>
       <c r="U155" s="60"/>
@@ -14542,7 +14827,7 @@
       <c r="AC155" s="60"/>
       <c r="AD155" s="60"/>
     </row>
-    <row r="156" spans="19:30" s="43" customFormat="1">
+    <row r="156" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S156" s="60"/>
       <c r="T156" s="60"/>
       <c r="U156" s="60"/>
@@ -14556,7 +14841,7 @@
       <c r="AC156" s="60"/>
       <c r="AD156" s="60"/>
     </row>
-    <row r="157" spans="19:30" s="43" customFormat="1">
+    <row r="157" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S157" s="60"/>
       <c r="T157" s="60"/>
       <c r="U157" s="60"/>
@@ -14570,7 +14855,7 @@
       <c r="AC157" s="60"/>
       <c r="AD157" s="60"/>
     </row>
-    <row r="158" spans="19:30" s="43" customFormat="1">
+    <row r="158" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S158" s="60"/>
       <c r="T158" s="60"/>
       <c r="U158" s="60"/>
@@ -14584,7 +14869,7 @@
       <c r="AC158" s="60"/>
       <c r="AD158" s="60"/>
     </row>
-    <row r="159" spans="19:30" s="43" customFormat="1">
+    <row r="159" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S159" s="60"/>
       <c r="T159" s="60"/>
       <c r="U159" s="60"/>
@@ -14598,7 +14883,7 @@
       <c r="AC159" s="60"/>
       <c r="AD159" s="60"/>
     </row>
-    <row r="160" spans="19:30" s="43" customFormat="1">
+    <row r="160" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S160" s="60"/>
       <c r="T160" s="60"/>
       <c r="U160" s="60"/>
@@ -14612,7 +14897,7 @@
       <c r="AC160" s="60"/>
       <c r="AD160" s="60"/>
     </row>
-    <row r="161" spans="19:30" s="43" customFormat="1">
+    <row r="161" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S161" s="60"/>
       <c r="T161" s="60"/>
       <c r="U161" s="60"/>
@@ -14626,7 +14911,7 @@
       <c r="AC161" s="60"/>
       <c r="AD161" s="60"/>
     </row>
-    <row r="162" spans="19:30" s="43" customFormat="1">
+    <row r="162" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S162" s="60"/>
       <c r="T162" s="60"/>
       <c r="U162" s="60"/>
@@ -14640,7 +14925,7 @@
       <c r="AC162" s="60"/>
       <c r="AD162" s="60"/>
     </row>
-    <row r="163" spans="19:30" s="43" customFormat="1">
+    <row r="163" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S163" s="60"/>
       <c r="T163" s="60"/>
       <c r="U163" s="60"/>
@@ -14654,7 +14939,7 @@
       <c r="AC163" s="60"/>
       <c r="AD163" s="60"/>
     </row>
-    <row r="164" spans="19:30" s="43" customFormat="1">
+    <row r="164" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S164" s="60"/>
       <c r="T164" s="60"/>
       <c r="U164" s="60"/>
@@ -14668,7 +14953,7 @@
       <c r="AC164" s="60"/>
       <c r="AD164" s="60"/>
     </row>
-    <row r="165" spans="19:30" s="43" customFormat="1">
+    <row r="165" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S165" s="60"/>
       <c r="T165" s="60"/>
       <c r="U165" s="60"/>
@@ -14682,7 +14967,7 @@
       <c r="AC165" s="60"/>
       <c r="AD165" s="60"/>
     </row>
-    <row r="166" spans="19:30" s="43" customFormat="1">
+    <row r="166" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S166" s="60"/>
       <c r="T166" s="60"/>
       <c r="U166" s="60"/>
@@ -14696,7 +14981,7 @@
       <c r="AC166" s="60"/>
       <c r="AD166" s="60"/>
     </row>
-    <row r="167" spans="19:30" s="43" customFormat="1">
+    <row r="167" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S167" s="60"/>
       <c r="T167" s="60"/>
       <c r="U167" s="60"/>
@@ -14710,7 +14995,7 @@
       <c r="AC167" s="60"/>
       <c r="AD167" s="60"/>
     </row>
-    <row r="168" spans="19:30" s="43" customFormat="1">
+    <row r="168" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S168" s="60"/>
       <c r="T168" s="60"/>
       <c r="U168" s="60"/>
@@ -14724,7 +15009,7 @@
       <c r="AC168" s="60"/>
       <c r="AD168" s="60"/>
     </row>
-    <row r="169" spans="19:30" s="43" customFormat="1">
+    <row r="169" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S169" s="60"/>
       <c r="T169" s="60"/>
       <c r="U169" s="60"/>
@@ -14738,7 +15023,7 @@
       <c r="AC169" s="60"/>
       <c r="AD169" s="60"/>
     </row>
-    <row r="170" spans="19:30" s="43" customFormat="1">
+    <row r="170" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S170" s="60"/>
       <c r="T170" s="60"/>
       <c r="U170" s="60"/>
@@ -14752,7 +15037,7 @@
       <c r="AC170" s="60"/>
       <c r="AD170" s="60"/>
     </row>
-    <row r="171" spans="19:30" s="43" customFormat="1">
+    <row r="171" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S171" s="60"/>
       <c r="T171" s="60"/>
       <c r="U171" s="60"/>
@@ -14766,7 +15051,7 @@
       <c r="AC171" s="60"/>
       <c r="AD171" s="60"/>
     </row>
-    <row r="172" spans="19:30" s="43" customFormat="1">
+    <row r="172" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S172" s="60"/>
       <c r="T172" s="60"/>
       <c r="U172" s="60"/>
@@ -14780,7 +15065,7 @@
       <c r="AC172" s="60"/>
       <c r="AD172" s="60"/>
     </row>
-    <row r="173" spans="19:30" s="43" customFormat="1">
+    <row r="173" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S173" s="60"/>
       <c r="T173" s="60"/>
       <c r="U173" s="60"/>
@@ -14794,7 +15079,7 @@
       <c r="AC173" s="60"/>
       <c r="AD173" s="60"/>
     </row>
-    <row r="174" spans="19:30" s="43" customFormat="1">
+    <row r="174" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S174" s="60"/>
       <c r="T174" s="60"/>
       <c r="U174" s="60"/>
@@ -14808,7 +15093,7 @@
       <c r="AC174" s="60"/>
       <c r="AD174" s="60"/>
     </row>
-    <row r="175" spans="19:30" s="43" customFormat="1">
+    <row r="175" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S175" s="60"/>
       <c r="T175" s="60"/>
       <c r="U175" s="60"/>
@@ -14822,7 +15107,7 @@
       <c r="AC175" s="60"/>
       <c r="AD175" s="60"/>
     </row>
-    <row r="176" spans="19:30" s="43" customFormat="1">
+    <row r="176" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S176" s="60"/>
       <c r="T176" s="60"/>
       <c r="U176" s="60"/>
@@ -14836,7 +15121,7 @@
       <c r="AC176" s="60"/>
       <c r="AD176" s="60"/>
     </row>
-    <row r="177" spans="19:30" s="43" customFormat="1">
+    <row r="177" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S177" s="60"/>
       <c r="T177" s="60"/>
       <c r="U177" s="60"/>
@@ -14850,7 +15135,7 @@
       <c r="AC177" s="60"/>
       <c r="AD177" s="60"/>
     </row>
-    <row r="178" spans="19:30" s="43" customFormat="1">
+    <row r="178" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S178" s="60"/>
       <c r="T178" s="60"/>
       <c r="U178" s="60"/>
@@ -14864,7 +15149,7 @@
       <c r="AC178" s="60"/>
       <c r="AD178" s="60"/>
     </row>
-    <row r="179" spans="19:30" s="43" customFormat="1">
+    <row r="179" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S179" s="60"/>
       <c r="T179" s="60"/>
       <c r="U179" s="60"/>
@@ -14878,7 +15163,7 @@
       <c r="AC179" s="60"/>
       <c r="AD179" s="60"/>
     </row>
-    <row r="180" spans="19:30" s="43" customFormat="1">
+    <row r="180" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S180" s="60"/>
       <c r="T180" s="60"/>
       <c r="U180" s="60"/>
@@ -14892,7 +15177,7 @@
       <c r="AC180" s="60"/>
       <c r="AD180" s="60"/>
     </row>
-    <row r="181" spans="19:30" s="43" customFormat="1">
+    <row r="181" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S181" s="60"/>
       <c r="T181" s="60"/>
       <c r="U181" s="60"/>
@@ -14906,7 +15191,7 @@
       <c r="AC181" s="60"/>
       <c r="AD181" s="60"/>
     </row>
-    <row r="182" spans="19:30" s="43" customFormat="1">
+    <row r="182" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S182" s="60"/>
       <c r="T182" s="60"/>
       <c r="U182" s="60"/>
@@ -14920,7 +15205,7 @@
       <c r="AC182" s="60"/>
       <c r="AD182" s="60"/>
     </row>
-    <row r="183" spans="19:30" s="43" customFormat="1">
+    <row r="183" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S183" s="60"/>
       <c r="T183" s="60"/>
       <c r="U183" s="60"/>
@@ -14934,7 +15219,7 @@
       <c r="AC183" s="60"/>
       <c r="AD183" s="60"/>
     </row>
-    <row r="184" spans="19:30" s="43" customFormat="1">
+    <row r="184" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S184" s="60"/>
       <c r="T184" s="60"/>
       <c r="U184" s="60"/>
@@ -14948,7 +15233,7 @@
       <c r="AC184" s="60"/>
       <c r="AD184" s="60"/>
     </row>
-    <row r="185" spans="19:30" s="43" customFormat="1">
+    <row r="185" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S185" s="60"/>
       <c r="T185" s="60"/>
       <c r="U185" s="60"/>
@@ -14962,7 +15247,7 @@
       <c r="AC185" s="60"/>
       <c r="AD185" s="60"/>
     </row>
-    <row r="186" spans="19:30" s="43" customFormat="1">
+    <row r="186" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S186" s="60"/>
       <c r="T186" s="60"/>
       <c r="U186" s="60"/>
@@ -14976,7 +15261,7 @@
       <c r="AC186" s="60"/>
       <c r="AD186" s="60"/>
     </row>
-    <row r="187" spans="19:30" s="43" customFormat="1">
+    <row r="187" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S187" s="60"/>
       <c r="T187" s="60"/>
       <c r="U187" s="60"/>
@@ -14990,7 +15275,7 @@
       <c r="AC187" s="60"/>
       <c r="AD187" s="60"/>
     </row>
-    <row r="188" spans="19:30" s="43" customFormat="1">
+    <row r="188" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S188" s="60"/>
       <c r="T188" s="60"/>
       <c r="U188" s="60"/>
@@ -15004,7 +15289,7 @@
       <c r="AC188" s="60"/>
       <c r="AD188" s="60"/>
     </row>
-    <row r="189" spans="19:30" s="43" customFormat="1">
+    <row r="189" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S189" s="60"/>
       <c r="T189" s="60"/>
       <c r="U189" s="60"/>
@@ -15018,7 +15303,7 @@
       <c r="AC189" s="60"/>
       <c r="AD189" s="60"/>
     </row>
-    <row r="190" spans="19:30" s="43" customFormat="1">
+    <row r="190" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S190" s="60"/>
       <c r="T190" s="60"/>
       <c r="U190" s="60"/>
@@ -15032,7 +15317,7 @@
       <c r="AC190" s="60"/>
       <c r="AD190" s="60"/>
     </row>
-    <row r="191" spans="19:30" s="43" customFormat="1">
+    <row r="191" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S191" s="60"/>
       <c r="T191" s="60"/>
       <c r="U191" s="60"/>
@@ -15046,7 +15331,7 @@
       <c r="AC191" s="60"/>
       <c r="AD191" s="60"/>
     </row>
-    <row r="192" spans="19:30" s="43" customFormat="1">
+    <row r="192" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S192" s="60"/>
       <c r="T192" s="60"/>
       <c r="U192" s="60"/>
@@ -15060,7 +15345,7 @@
       <c r="AC192" s="60"/>
       <c r="AD192" s="60"/>
     </row>
-    <row r="193" spans="19:30" s="43" customFormat="1">
+    <row r="193" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S193" s="60"/>
       <c r="T193" s="60"/>
       <c r="U193" s="60"/>
@@ -15074,7 +15359,7 @@
       <c r="AC193" s="60"/>
       <c r="AD193" s="60"/>
     </row>
-    <row r="194" spans="19:30" s="43" customFormat="1">
+    <row r="194" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S194" s="60"/>
       <c r="T194" s="60"/>
       <c r="U194" s="60"/>
@@ -15088,7 +15373,7 @@
       <c r="AC194" s="60"/>
       <c r="AD194" s="60"/>
     </row>
-    <row r="195" spans="19:30" s="43" customFormat="1">
+    <row r="195" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S195" s="60"/>
       <c r="T195" s="60"/>
       <c r="U195" s="60"/>
@@ -15102,7 +15387,7 @@
       <c r="AC195" s="60"/>
       <c r="AD195" s="60"/>
     </row>
-    <row r="196" spans="19:30" s="43" customFormat="1">
+    <row r="196" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S196" s="60"/>
       <c r="T196" s="60"/>
       <c r="U196" s="60"/>
@@ -15116,7 +15401,7 @@
       <c r="AC196" s="60"/>
       <c r="AD196" s="60"/>
     </row>
-    <row r="197" spans="19:30" s="43" customFormat="1">
+    <row r="197" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S197" s="60"/>
       <c r="T197" s="60"/>
       <c r="U197" s="60"/>
@@ -15130,7 +15415,7 @@
       <c r="AC197" s="60"/>
       <c r="AD197" s="60"/>
     </row>
-    <row r="198" spans="19:30" s="43" customFormat="1">
+    <row r="198" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S198" s="60"/>
       <c r="T198" s="60"/>
       <c r="U198" s="60"/>
@@ -15144,7 +15429,7 @@
       <c r="AC198" s="60"/>
       <c r="AD198" s="60"/>
     </row>
-    <row r="199" spans="19:30" s="43" customFormat="1">
+    <row r="199" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S199" s="60"/>
       <c r="T199" s="60"/>
       <c r="U199" s="60"/>
@@ -15158,7 +15443,7 @@
       <c r="AC199" s="60"/>
       <c r="AD199" s="60"/>
     </row>
-    <row r="200" spans="19:30" s="43" customFormat="1">
+    <row r="200" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S200" s="60"/>
       <c r="T200" s="60"/>
       <c r="U200" s="60"/>
@@ -15172,7 +15457,7 @@
       <c r="AC200" s="60"/>
       <c r="AD200" s="60"/>
     </row>
-    <row r="201" spans="19:30" s="43" customFormat="1">
+    <row r="201" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S201" s="60"/>
       <c r="T201" s="60"/>
       <c r="U201" s="60"/>
@@ -15186,7 +15471,7 @@
       <c r="AC201" s="60"/>
       <c r="AD201" s="60"/>
     </row>
-    <row r="202" spans="19:30" s="43" customFormat="1">
+    <row r="202" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S202" s="60"/>
       <c r="T202" s="60"/>
       <c r="U202" s="60"/>
@@ -15200,7 +15485,7 @@
       <c r="AC202" s="60"/>
       <c r="AD202" s="60"/>
     </row>
-    <row r="203" spans="19:30" s="43" customFormat="1">
+    <row r="203" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S203" s="60"/>
       <c r="T203" s="60"/>
       <c r="U203" s="60"/>
@@ -15214,7 +15499,7 @@
       <c r="AC203" s="60"/>
       <c r="AD203" s="60"/>
     </row>
-    <row r="204" spans="19:30" s="43" customFormat="1">
+    <row r="204" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S204" s="60"/>
       <c r="T204" s="60"/>
       <c r="U204" s="60"/>
@@ -15228,7 +15513,7 @@
       <c r="AC204" s="60"/>
       <c r="AD204" s="60"/>
     </row>
-    <row r="205" spans="19:30" s="43" customFormat="1">
+    <row r="205" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S205" s="60"/>
       <c r="T205" s="60"/>
       <c r="U205" s="60"/>
@@ -15242,7 +15527,7 @@
       <c r="AC205" s="60"/>
       <c r="AD205" s="60"/>
     </row>
-    <row r="206" spans="19:30" s="43" customFormat="1">
+    <row r="206" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S206" s="60"/>
       <c r="T206" s="60"/>
       <c r="U206" s="60"/>
@@ -15256,7 +15541,7 @@
       <c r="AC206" s="60"/>
       <c r="AD206" s="60"/>
     </row>
-    <row r="207" spans="19:30" s="43" customFormat="1">
+    <row r="207" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S207" s="60"/>
       <c r="T207" s="60"/>
       <c r="U207" s="60"/>
@@ -15270,7 +15555,7 @@
       <c r="AC207" s="60"/>
       <c r="AD207" s="60"/>
     </row>
-    <row r="208" spans="19:30" s="43" customFormat="1">
+    <row r="208" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S208" s="60"/>
       <c r="T208" s="60"/>
       <c r="U208" s="60"/>
@@ -15284,7 +15569,7 @@
       <c r="AC208" s="60"/>
       <c r="AD208" s="60"/>
     </row>
-    <row r="209" spans="19:30" s="43" customFormat="1">
+    <row r="209" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S209" s="60"/>
       <c r="T209" s="60"/>
       <c r="U209" s="60"/>
@@ -15298,7 +15583,7 @@
       <c r="AC209" s="60"/>
       <c r="AD209" s="60"/>
     </row>
-    <row r="210" spans="19:30" s="43" customFormat="1">
+    <row r="210" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S210" s="60"/>
       <c r="T210" s="60"/>
       <c r="U210" s="60"/>
@@ -15312,7 +15597,7 @@
       <c r="AC210" s="60"/>
       <c r="AD210" s="60"/>
     </row>
-    <row r="211" spans="19:30" s="43" customFormat="1">
+    <row r="211" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S211" s="60"/>
       <c r="T211" s="60"/>
       <c r="U211" s="60"/>
@@ -15326,7 +15611,7 @@
       <c r="AC211" s="60"/>
       <c r="AD211" s="60"/>
     </row>
-    <row r="212" spans="19:30" s="43" customFormat="1">
+    <row r="212" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S212" s="60"/>
       <c r="T212" s="60"/>
       <c r="U212" s="60"/>
@@ -15340,7 +15625,7 @@
       <c r="AC212" s="60"/>
       <c r="AD212" s="60"/>
     </row>
-    <row r="213" spans="19:30" s="43" customFormat="1">
+    <row r="213" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S213" s="60"/>
       <c r="T213" s="60"/>
       <c r="U213" s="60"/>
@@ -15354,7 +15639,7 @@
       <c r="AC213" s="60"/>
       <c r="AD213" s="60"/>
     </row>
-    <row r="214" spans="19:30" s="43" customFormat="1">
+    <row r="214" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S214" s="60"/>
       <c r="T214" s="60"/>
       <c r="U214" s="60"/>
@@ -15368,7 +15653,7 @@
       <c r="AC214" s="60"/>
       <c r="AD214" s="60"/>
     </row>
-    <row r="215" spans="19:30" s="43" customFormat="1">
+    <row r="215" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S215" s="60"/>
       <c r="T215" s="60"/>
       <c r="U215" s="60"/>
@@ -15382,7 +15667,7 @@
       <c r="AC215" s="60"/>
       <c r="AD215" s="60"/>
     </row>
-    <row r="216" spans="19:30" s="43" customFormat="1">
+    <row r="216" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S216" s="60"/>
       <c r="T216" s="60"/>
       <c r="U216" s="60"/>
@@ -15396,7 +15681,7 @@
       <c r="AC216" s="60"/>
       <c r="AD216" s="60"/>
     </row>
-    <row r="217" spans="19:30" s="43" customFormat="1">
+    <row r="217" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S217" s="60"/>
       <c r="T217" s="60"/>
       <c r="U217" s="60"/>
@@ -15410,7 +15695,7 @@
       <c r="AC217" s="60"/>
       <c r="AD217" s="60"/>
     </row>
-    <row r="218" spans="19:30" s="43" customFormat="1">
+    <row r="218" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S218" s="60"/>
       <c r="T218" s="60"/>
       <c r="U218" s="60"/>
@@ -15424,7 +15709,7 @@
       <c r="AC218" s="60"/>
       <c r="AD218" s="60"/>
     </row>
-    <row r="219" spans="19:30" s="43" customFormat="1">
+    <row r="219" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S219" s="60"/>
       <c r="T219" s="60"/>
       <c r="U219" s="60"/>
@@ -15438,7 +15723,7 @@
       <c r="AC219" s="60"/>
       <c r="AD219" s="60"/>
     </row>
-    <row r="220" spans="19:30" s="43" customFormat="1">
+    <row r="220" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S220" s="60"/>
       <c r="T220" s="60"/>
       <c r="U220" s="60"/>
@@ -15452,7 +15737,7 @@
       <c r="AC220" s="60"/>
       <c r="AD220" s="60"/>
     </row>
-    <row r="221" spans="19:30" s="43" customFormat="1">
+    <row r="221" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S221" s="60"/>
       <c r="T221" s="60"/>
       <c r="U221" s="60"/>
@@ -15466,7 +15751,7 @@
       <c r="AC221" s="60"/>
       <c r="AD221" s="60"/>
     </row>
-    <row r="222" spans="19:30" s="43" customFormat="1">
+    <row r="222" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S222" s="60"/>
       <c r="T222" s="60"/>
       <c r="U222" s="60"/>
@@ -15480,7 +15765,7 @@
       <c r="AC222" s="60"/>
       <c r="AD222" s="60"/>
     </row>
-    <row r="223" spans="19:30" s="43" customFormat="1">
+    <row r="223" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S223" s="60"/>
       <c r="T223" s="60"/>
       <c r="U223" s="60"/>
@@ -15494,7 +15779,7 @@
       <c r="AC223" s="60"/>
       <c r="AD223" s="60"/>
     </row>
-    <row r="224" spans="19:30" s="43" customFormat="1">
+    <row r="224" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S224" s="60"/>
       <c r="T224" s="60"/>
       <c r="U224" s="60"/>
@@ -15508,7 +15793,7 @@
       <c r="AC224" s="60"/>
       <c r="AD224" s="60"/>
     </row>
-    <row r="225" spans="19:30" s="43" customFormat="1">
+    <row r="225" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S225" s="60"/>
       <c r="T225" s="60"/>
       <c r="U225" s="60"/>
@@ -15522,7 +15807,7 @@
       <c r="AC225" s="60"/>
       <c r="AD225" s="60"/>
     </row>
-    <row r="226" spans="19:30" s="43" customFormat="1">
+    <row r="226" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S226" s="60"/>
       <c r="T226" s="60"/>
       <c r="U226" s="60"/>
@@ -15536,7 +15821,7 @@
       <c r="AC226" s="60"/>
       <c r="AD226" s="60"/>
     </row>
-    <row r="227" spans="19:30" s="43" customFormat="1">
+    <row r="227" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S227" s="60"/>
       <c r="T227" s="60"/>
       <c r="U227" s="60"/>
@@ -15550,7 +15835,7 @@
       <c r="AC227" s="60"/>
       <c r="AD227" s="60"/>
     </row>
-    <row r="228" spans="19:30" s="43" customFormat="1">
+    <row r="228" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S228" s="60"/>
       <c r="T228" s="60"/>
       <c r="U228" s="60"/>
@@ -15564,7 +15849,7 @@
       <c r="AC228" s="60"/>
       <c r="AD228" s="60"/>
     </row>
-    <row r="229" spans="19:30" s="43" customFormat="1">
+    <row r="229" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S229" s="60"/>
       <c r="T229" s="60"/>
       <c r="U229" s="60"/>
@@ -15578,7 +15863,7 @@
       <c r="AC229" s="60"/>
       <c r="AD229" s="60"/>
     </row>
-    <row r="230" spans="19:30" s="43" customFormat="1">
+    <row r="230" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S230" s="60"/>
       <c r="T230" s="60"/>
       <c r="U230" s="60"/>
@@ -15592,7 +15877,7 @@
       <c r="AC230" s="60"/>
       <c r="AD230" s="60"/>
     </row>
-    <row r="231" spans="19:30" s="43" customFormat="1">
+    <row r="231" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S231" s="60"/>
       <c r="T231" s="60"/>
       <c r="U231" s="60"/>
@@ -15606,7 +15891,7 @@
       <c r="AC231" s="60"/>
       <c r="AD231" s="60"/>
     </row>
-    <row r="232" spans="19:30" s="43" customFormat="1">
+    <row r="232" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S232" s="60"/>
       <c r="T232" s="60"/>
       <c r="U232" s="60"/>
@@ -15620,7 +15905,7 @@
       <c r="AC232" s="60"/>
       <c r="AD232" s="60"/>
     </row>
-    <row r="233" spans="19:30" s="43" customFormat="1">
+    <row r="233" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S233" s="60"/>
       <c r="T233" s="60"/>
       <c r="U233" s="60"/>
@@ -15634,7 +15919,7 @@
       <c r="AC233" s="60"/>
       <c r="AD233" s="60"/>
     </row>
-    <row r="234" spans="19:30" s="43" customFormat="1">
+    <row r="234" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S234" s="60"/>
       <c r="T234" s="60"/>
       <c r="U234" s="60"/>
@@ -15648,7 +15933,7 @@
       <c r="AC234" s="60"/>
       <c r="AD234" s="60"/>
     </row>
-    <row r="235" spans="19:30" s="43" customFormat="1">
+    <row r="235" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S235" s="60"/>
       <c r="T235" s="60"/>
       <c r="U235" s="60"/>
@@ -15662,7 +15947,7 @@
       <c r="AC235" s="60"/>
       <c r="AD235" s="60"/>
     </row>
-    <row r="236" spans="19:30" s="43" customFormat="1">
+    <row r="236" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S236" s="60"/>
       <c r="T236" s="60"/>
       <c r="U236" s="60"/>
@@ -15676,7 +15961,7 @@
       <c r="AC236" s="60"/>
       <c r="AD236" s="60"/>
     </row>
-    <row r="237" spans="19:30" s="43" customFormat="1">
+    <row r="237" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S237" s="60"/>
       <c r="T237" s="60"/>
       <c r="U237" s="60"/>
@@ -15690,7 +15975,7 @@
       <c r="AC237" s="60"/>
       <c r="AD237" s="60"/>
     </row>
-    <row r="238" spans="19:30" s="43" customFormat="1">
+    <row r="238" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S238" s="60"/>
       <c r="T238" s="60"/>
       <c r="U238" s="60"/>
@@ -15704,7 +15989,7 @@
       <c r="AC238" s="60"/>
       <c r="AD238" s="60"/>
     </row>
-    <row r="239" spans="19:30" s="43" customFormat="1">
+    <row r="239" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S239" s="60"/>
       <c r="T239" s="60"/>
       <c r="U239" s="60"/>
@@ -15718,7 +16003,7 @@
       <c r="AC239" s="60"/>
       <c r="AD239" s="60"/>
     </row>
-    <row r="240" spans="19:30" s="43" customFormat="1">
+    <row r="240" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S240" s="60"/>
       <c r="T240" s="60"/>
       <c r="U240" s="60"/>
@@ -15732,7 +16017,7 @@
       <c r="AC240" s="60"/>
       <c r="AD240" s="60"/>
     </row>
-    <row r="241" spans="19:30" s="43" customFormat="1">
+    <row r="241" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S241" s="60"/>
       <c r="T241" s="60"/>
       <c r="U241" s="60"/>
@@ -15746,7 +16031,7 @@
       <c r="AC241" s="60"/>
       <c r="AD241" s="60"/>
     </row>
-    <row r="242" spans="19:30" s="43" customFormat="1">
+    <row r="242" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S242" s="60"/>
       <c r="T242" s="60"/>
       <c r="U242" s="60"/>
@@ -15760,7 +16045,7 @@
       <c r="AC242" s="60"/>
       <c r="AD242" s="60"/>
     </row>
-    <row r="243" spans="19:30" s="43" customFormat="1">
+    <row r="243" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S243" s="60"/>
       <c r="T243" s="60"/>
       <c r="U243" s="60"/>
@@ -15774,7 +16059,7 @@
       <c r="AC243" s="60"/>
       <c r="AD243" s="60"/>
     </row>
-    <row r="244" spans="19:30" s="43" customFormat="1">
+    <row r="244" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S244" s="60"/>
       <c r="T244" s="60"/>
       <c r="U244" s="60"/>
@@ -15788,7 +16073,7 @@
       <c r="AC244" s="60"/>
       <c r="AD244" s="60"/>
     </row>
-    <row r="245" spans="19:30" s="43" customFormat="1">
+    <row r="245" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S245" s="60"/>
       <c r="T245" s="60"/>
       <c r="U245" s="60"/>
@@ -15802,7 +16087,7 @@
       <c r="AC245" s="60"/>
       <c r="AD245" s="60"/>
     </row>
-    <row r="246" spans="19:30" s="43" customFormat="1">
+    <row r="246" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S246" s="60"/>
       <c r="T246" s="60"/>
       <c r="U246" s="60"/>
@@ -15816,7 +16101,7 @@
       <c r="AC246" s="60"/>
       <c r="AD246" s="60"/>
     </row>
-    <row r="247" spans="19:30" s="43" customFormat="1">
+    <row r="247" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S247" s="60"/>
       <c r="T247" s="60"/>
       <c r="U247" s="60"/>
@@ -15830,7 +16115,7 @@
       <c r="AC247" s="60"/>
       <c r="AD247" s="60"/>
     </row>
-    <row r="248" spans="19:30" s="43" customFormat="1">
+    <row r="248" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S248" s="60"/>
       <c r="T248" s="60"/>
       <c r="U248" s="60"/>
@@ -15844,7 +16129,7 @@
       <c r="AC248" s="60"/>
       <c r="AD248" s="60"/>
     </row>
-    <row r="249" spans="19:30" s="43" customFormat="1">
+    <row r="249" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S249" s="60"/>
       <c r="T249" s="60"/>
       <c r="U249" s="60"/>
@@ -15858,7 +16143,7 @@
       <c r="AC249" s="60"/>
       <c r="AD249" s="60"/>
     </row>
-    <row r="250" spans="19:30" s="43" customFormat="1">
+    <row r="250" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S250" s="60"/>
       <c r="T250" s="60"/>
       <c r="U250" s="60"/>
@@ -15872,7 +16157,7 @@
       <c r="AC250" s="60"/>
       <c r="AD250" s="60"/>
     </row>
-    <row r="251" spans="19:30" s="43" customFormat="1">
+    <row r="251" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S251" s="60"/>
       <c r="T251" s="60"/>
       <c r="U251" s="60"/>
@@ -15886,7 +16171,7 @@
       <c r="AC251" s="60"/>
       <c r="AD251" s="60"/>
     </row>
-    <row r="252" spans="19:30" s="43" customFormat="1">
+    <row r="252" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S252" s="60"/>
       <c r="T252" s="60"/>
       <c r="U252" s="60"/>
@@ -15900,7 +16185,7 @@
       <c r="AC252" s="60"/>
       <c r="AD252" s="60"/>
     </row>
-    <row r="253" spans="19:30" s="43" customFormat="1">
+    <row r="253" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S253" s="60"/>
       <c r="T253" s="60"/>
       <c r="U253" s="60"/>
@@ -15914,7 +16199,7 @@
       <c r="AC253" s="60"/>
       <c r="AD253" s="60"/>
     </row>
-    <row r="254" spans="19:30" s="43" customFormat="1">
+    <row r="254" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S254" s="60"/>
       <c r="T254" s="60"/>
       <c r="U254" s="60"/>
@@ -15928,7 +16213,7 @@
       <c r="AC254" s="60"/>
       <c r="AD254" s="60"/>
     </row>
-    <row r="255" spans="19:30" s="43" customFormat="1">
+    <row r="255" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S255" s="60"/>
       <c r="T255" s="60"/>
       <c r="U255" s="60"/>
@@ -15942,7 +16227,7 @@
       <c r="AC255" s="60"/>
       <c r="AD255" s="60"/>
     </row>
-    <row r="256" spans="19:30" s="43" customFormat="1">
+    <row r="256" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S256" s="60"/>
       <c r="T256" s="60"/>
       <c r="U256" s="60"/>
@@ -15956,7 +16241,7 @@
       <c r="AC256" s="60"/>
       <c r="AD256" s="60"/>
     </row>
-    <row r="257" spans="19:30" s="43" customFormat="1">
+    <row r="257" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S257" s="60"/>
       <c r="T257" s="60"/>
       <c r="U257" s="60"/>
@@ -15970,7 +16255,7 @@
       <c r="AC257" s="60"/>
       <c r="AD257" s="60"/>
     </row>
-    <row r="258" spans="19:30" s="43" customFormat="1">
+    <row r="258" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S258" s="60"/>
       <c r="T258" s="60"/>
       <c r="U258" s="60"/>
@@ -15984,7 +16269,7 @@
       <c r="AC258" s="60"/>
       <c r="AD258" s="60"/>
     </row>
-    <row r="259" spans="19:30" s="43" customFormat="1">
+    <row r="259" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S259" s="60"/>
       <c r="T259" s="60"/>
       <c r="U259" s="60"/>
@@ -15998,7 +16283,7 @@
       <c r="AC259" s="60"/>
       <c r="AD259" s="60"/>
     </row>
-    <row r="260" spans="19:30" s="43" customFormat="1">
+    <row r="260" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S260" s="60"/>
       <c r="T260" s="60"/>
       <c r="U260" s="60"/>
@@ -16012,7 +16297,7 @@
       <c r="AC260" s="60"/>
       <c r="AD260" s="60"/>
     </row>
-    <row r="261" spans="19:30" s="43" customFormat="1">
+    <row r="261" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S261" s="60"/>
       <c r="T261" s="60"/>
       <c r="U261" s="60"/>
@@ -16026,7 +16311,7 @@
       <c r="AC261" s="60"/>
       <c r="AD261" s="60"/>
     </row>
-    <row r="262" spans="19:30" s="43" customFormat="1">
+    <row r="262" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S262" s="60"/>
       <c r="T262" s="60"/>
       <c r="U262" s="60"/>
@@ -16040,7 +16325,7 @@
       <c r="AC262" s="60"/>
       <c r="AD262" s="60"/>
     </row>
-    <row r="263" spans="19:30" s="43" customFormat="1">
+    <row r="263" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S263" s="60"/>
       <c r="T263" s="60"/>
       <c r="U263" s="60"/>
@@ -16054,7 +16339,7 @@
       <c r="AC263" s="60"/>
       <c r="AD263" s="60"/>
     </row>
-    <row r="264" spans="19:30" s="43" customFormat="1">
+    <row r="264" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S264" s="60"/>
       <c r="T264" s="60"/>
       <c r="U264" s="60"/>
@@ -16068,7 +16353,7 @@
       <c r="AC264" s="60"/>
       <c r="AD264" s="60"/>
     </row>
-    <row r="265" spans="19:30" s="43" customFormat="1">
+    <row r="265" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S265" s="60"/>
       <c r="T265" s="60"/>
       <c r="U265" s="60"/>
@@ -16082,7 +16367,7 @@
       <c r="AC265" s="60"/>
       <c r="AD265" s="60"/>
     </row>
-    <row r="266" spans="19:30" s="43" customFormat="1">
+    <row r="266" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S266" s="60"/>
       <c r="T266" s="60"/>
       <c r="U266" s="60"/>
@@ -16096,7 +16381,7 @@
       <c r="AC266" s="60"/>
       <c r="AD266" s="60"/>
     </row>
-    <row r="267" spans="19:30" s="43" customFormat="1">
+    <row r="267" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S267" s="60"/>
       <c r="T267" s="60"/>
       <c r="U267" s="60"/>
@@ -16110,7 +16395,7 @@
       <c r="AC267" s="60"/>
       <c r="AD267" s="60"/>
     </row>
-    <row r="268" spans="19:30" s="43" customFormat="1">
+    <row r="268" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S268" s="60"/>
       <c r="T268" s="60"/>
       <c r="U268" s="60"/>
@@ -16124,7 +16409,7 @@
       <c r="AC268" s="60"/>
       <c r="AD268" s="60"/>
     </row>
-    <row r="269" spans="19:30" s="43" customFormat="1">
+    <row r="269" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S269" s="60"/>
       <c r="T269" s="60"/>
       <c r="U269" s="60"/>
@@ -16138,7 +16423,7 @@
       <c r="AC269" s="60"/>
       <c r="AD269" s="60"/>
     </row>
-    <row r="270" spans="19:30" s="43" customFormat="1">
+    <row r="270" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S270" s="60"/>
       <c r="T270" s="60"/>
       <c r="U270" s="60"/>
@@ -16152,7 +16437,7 @@
       <c r="AC270" s="60"/>
       <c r="AD270" s="60"/>
     </row>
-    <row r="271" spans="19:30" s="43" customFormat="1">
+    <row r="271" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S271" s="60"/>
       <c r="T271" s="60"/>
       <c r="U271" s="60"/>
@@ -16166,7 +16451,7 @@
       <c r="AC271" s="60"/>
       <c r="AD271" s="60"/>
     </row>
-    <row r="272" spans="19:30" s="43" customFormat="1">
+    <row r="272" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S272" s="60"/>
       <c r="T272" s="60"/>
       <c r="U272" s="60"/>
@@ -16180,7 +16465,7 @@
       <c r="AC272" s="60"/>
       <c r="AD272" s="60"/>
     </row>
-    <row r="273" spans="19:30" s="43" customFormat="1">
+    <row r="273" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S273" s="60"/>
       <c r="T273" s="60"/>
       <c r="U273" s="60"/>
@@ -16194,7 +16479,7 @@
       <c r="AC273" s="60"/>
       <c r="AD273" s="60"/>
     </row>
-    <row r="274" spans="19:30" s="43" customFormat="1">
+    <row r="274" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S274" s="60"/>
       <c r="T274" s="60"/>
       <c r="U274" s="60"/>
@@ -16208,7 +16493,7 @@
       <c r="AC274" s="60"/>
       <c r="AD274" s="60"/>
     </row>
-    <row r="275" spans="19:30" s="43" customFormat="1">
+    <row r="275" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S275" s="60"/>
       <c r="T275" s="60"/>
       <c r="U275" s="60"/>
@@ -16222,7 +16507,7 @@
       <c r="AC275" s="60"/>
       <c r="AD275" s="60"/>
     </row>
-    <row r="276" spans="19:30" s="43" customFormat="1">
+    <row r="276" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S276" s="60"/>
       <c r="T276" s="60"/>
       <c r="U276" s="60"/>
@@ -16236,7 +16521,7 @@
       <c r="AC276" s="60"/>
       <c r="AD276" s="60"/>
     </row>
-    <row r="277" spans="19:30" s="43" customFormat="1">
+    <row r="277" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S277" s="60"/>
       <c r="T277" s="60"/>
       <c r="U277" s="60"/>
@@ -16250,7 +16535,7 @@
       <c r="AC277" s="60"/>
       <c r="AD277" s="60"/>
     </row>
-    <row r="278" spans="19:30" s="43" customFormat="1">
+    <row r="278" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S278" s="60"/>
       <c r="T278" s="60"/>
       <c r="U278" s="60"/>
@@ -16264,7 +16549,7 @@
       <c r="AC278" s="60"/>
       <c r="AD278" s="60"/>
     </row>
-    <row r="279" spans="19:30" s="43" customFormat="1">
+    <row r="279" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S279" s="60"/>
       <c r="T279" s="60"/>
       <c r="U279" s="60"/>
@@ -16278,7 +16563,7 @@
       <c r="AC279" s="60"/>
       <c r="AD279" s="60"/>
     </row>
-    <row r="280" spans="19:30" s="43" customFormat="1">
+    <row r="280" spans="19:30" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="S280" s="60"/>
       <c r="T280" s="60"/>
       <c r="U280" s="60"/>
@@ -16298,28 +16583,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
@@ -16330,12 +16615,12 @@
         <v>28799</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -16355,7 +16640,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -16385,7 +16670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -16413,7 +16698,7 @@
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -16441,7 +16726,7 @@
       </c>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -16469,7 +16754,7 @@
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -16497,7 +16782,7 @@
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -16513,7 +16798,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -16529,7 +16814,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -16553,12 +16838,12 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -16574,11 +16859,11 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -16608,7 +16893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -16636,7 +16921,7 @@
       </c>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -16664,7 +16949,7 @@
       </c>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -16692,7 +16977,7 @@
       </c>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -16720,7 +17005,7 @@
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -16744,12 +17029,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -16765,7 +17050,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -16795,7 +17080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -16811,7 +17096,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -16827,7 +17112,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -16843,7 +17128,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -16859,7 +17144,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -16879,12 +17164,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1">
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -16900,7 +17185,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -16930,7 +17215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -16946,7 +17231,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -16962,7 +17247,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -16978,7 +17263,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -16994,7 +17279,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -17021,28 +17306,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -17053,18 +17340,18 @@
         <v>28813</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -17078,7 +17365,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -17108,13 +17395,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -17136,13 +17423,13 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -17164,13 +17451,13 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -17192,13 +17479,13 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -17214,13 +17501,13 @@
         <v>99903</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" s="18">
         <v>904</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -17236,7 +17523,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -17252,7 +17539,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16" t="str">
@@ -17276,18 +17563,18 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -17301,7 +17588,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -17331,13 +17618,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="10">
@@ -17359,13 +17646,13 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -17387,13 +17674,13 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="10">
@@ -17415,13 +17702,13 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12">
@@ -17443,7 +17730,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16" t="str">
@@ -17467,12 +17754,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -17488,7 +17775,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -17518,7 +17805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -17534,7 +17821,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -17550,7 +17837,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -17566,7 +17853,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -17582,7 +17869,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -17602,12 +17889,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1">
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -17623,7 +17910,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -17653,7 +17940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -17669,7 +17956,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -17685,7 +17972,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -17701,7 +17988,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -17717,7 +18004,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -17744,7 +18031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17752,22 +18039,22 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
@@ -17778,12 +18065,12 @@
         <v>28827</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -17799,11 +18086,11 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -17833,7 +18120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -17857,11 +18144,11 @@
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -17885,11 +18172,11 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -17897,7 +18184,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="18">
         <v>1013</v>
@@ -17913,11 +18200,11 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -17925,7 +18212,7 @@
         <v>99903</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="18">
         <v>904</v>
@@ -17941,11 +18228,11 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -17961,7 +18248,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -17977,7 +18264,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -18001,12 +18288,12 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -18022,11 +18309,11 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -18056,7 +18343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -18080,11 +18367,11 @@
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -18108,11 +18395,11 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -18136,11 +18423,11 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -18148,7 +18435,7 @@
         <v>93073</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="18">
         <v>1136</v>
@@ -18164,11 +18451,11 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -18192,12 +18479,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -18213,7 +18500,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -18243,7 +18530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -18259,7 +18546,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -18275,7 +18562,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -18291,7 +18578,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -18307,7 +18594,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -18327,12 +18614,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1">
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -18348,7 +18635,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -18378,7 +18665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -18394,7 +18681,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -18410,7 +18697,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -18426,7 +18713,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -18442,7 +18729,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -18469,7 +18756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18477,22 +18764,22 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
@@ -18503,18 +18790,18 @@
         <v>28862</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1">
+    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -18528,7 +18815,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -18558,13 +18845,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -18586,13 +18873,13 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -18614,13 +18901,13 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -18642,13 +18929,13 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -18670,7 +18957,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -18686,7 +18973,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -18702,7 +18989,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16" t="str">
@@ -18726,18 +19013,18 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="19.5" thickBot="1">
+    <row r="12" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -18751,10 +19038,10 @@
       </c>
       <c r="J13" s="1"/>
       <c r="L13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -18784,13 +19071,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="10">
@@ -18812,13 +19099,13 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -18840,13 +19127,13 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="10">
@@ -18862,19 +19149,19 @@
         <v>52</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17" s="18">
         <v>1173</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12">
@@ -18896,7 +19183,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16" t="str">
@@ -18920,12 +19207,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -18941,7 +19228,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -18971,7 +19258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -18987,7 +19274,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -19003,7 +19290,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -19019,7 +19306,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -19035,7 +19322,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -19055,12 +19342,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1">
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -19076,7 +19363,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -19106,7 +19393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -19122,7 +19409,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -19138,7 +19425,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -19154,7 +19441,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -19170,7 +19457,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -19197,28 +19484,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
@@ -19229,18 +19516,18 @@
         <v>28883</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -19254,7 +19541,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -19284,13 +19571,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -19312,13 +19599,13 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -19340,13 +19627,13 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -19368,13 +19655,13 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -19396,7 +19683,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -19412,7 +19699,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -19428,7 +19715,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16" t="str">
@@ -19452,18 +19739,18 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -19477,7 +19764,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -19507,13 +19794,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="10">
@@ -19535,13 +19822,13 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -19563,13 +19850,13 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="10">
@@ -19591,13 +19878,13 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12">
@@ -19619,7 +19906,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16" t="str">
@@ -19643,12 +19930,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -19664,7 +19951,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -19694,7 +19981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -19710,7 +19997,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -19726,7 +20013,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -19742,7 +20029,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -19758,7 +20045,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -19778,12 +20065,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1">
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -19799,7 +20086,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -19829,7 +20116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -19845,7 +20132,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -19861,7 +20148,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -19877,7 +20164,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -19893,7 +20180,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -19920,7 +20207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19928,22 +20215,22 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
@@ -19954,12 +20241,12 @@
         <v>28897</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -19975,11 +20262,11 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -20009,7 +20296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -20033,11 +20320,11 @@
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -20061,11 +20348,11 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -20089,11 +20376,11 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -20117,11 +20404,11 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -20137,7 +20424,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -20153,7 +20440,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -20177,12 +20464,12 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" thickBot="1">
+    <row r="12" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -20202,11 +20489,11 @@
       </c>
       <c r="J13" s="1"/>
       <c r="L13" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M13" s="63"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -20236,7 +20523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -20244,7 +20531,7 @@
         <v>57282</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="18">
         <v>1245</v>
@@ -20260,11 +20547,11 @@
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -20288,11 +20575,11 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -20316,11 +20603,11 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -20328,7 +20615,7 @@
         <v>64327</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="18">
         <v>807</v>
@@ -20344,11 +20631,11 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -20372,12 +20659,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -20393,7 +20680,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -20423,7 +20710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -20439,7 +20726,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -20455,7 +20742,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -20471,7 +20758,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -20487,7 +20774,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -20507,12 +20794,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1">
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -20528,7 +20815,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -20558,7 +20845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -20574,7 +20861,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -20590,7 +20877,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -20606,7 +20893,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -20622,7 +20909,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -20649,28 +20936,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>26</v>
       </c>
@@ -20681,18 +20968,18 @@
         <v>28911</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -20706,7 +20993,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -20736,13 +21023,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="10">
@@ -20764,13 +21051,13 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="10">
@@ -20792,13 +21079,13 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="10">
@@ -20820,13 +21107,13 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="10">
@@ -20848,7 +21135,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -20864,7 +21151,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -20880,7 +21167,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16" t="str">
@@ -20904,18 +21191,18 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -20929,7 +21216,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -20959,13 +21246,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="10">
@@ -20987,13 +21274,13 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="10">
@@ -21015,13 +21302,13 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="10">
@@ -21043,13 +21330,13 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12">
@@ -21071,7 +21358,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16" t="str">
@@ -21095,12 +21382,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -21116,7 +21403,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -21146,7 +21433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -21162,7 +21449,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -21178,7 +21465,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -21194,7 +21481,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -21210,7 +21497,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -21230,12 +21517,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1">
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -21251,7 +21538,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -21281,7 +21568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -21297,7 +21584,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -21313,7 +21600,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -21329,7 +21616,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -21345,7 +21632,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">
@@ -21372,7 +21659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21380,22 +21667,22 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
@@ -21406,12 +21693,12 @@
         <v>28918</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -21427,11 +21714,11 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -21461,7 +21748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -21485,11 +21772,11 @@
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -21513,11 +21800,11 @@
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -21541,11 +21828,11 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -21569,11 +21856,11 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -21589,7 +21876,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -21605,7 +21892,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -21629,12 +21916,12 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -21650,11 +21937,11 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -21684,7 +21971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -21708,11 +21995,11 @@
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -21736,11 +22023,11 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -21764,11 +22051,11 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J17" s="18"/>
       <c r="L17" s="63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
@@ -21776,7 +22063,7 @@
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1">
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -21800,11 +22087,11 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -21828,12 +22115,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="19.5" thickBot="1">
+    <row r="20" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -21849,7 +22136,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -21879,7 +22166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -21895,7 +22182,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -21911,7 +22198,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -21927,7 +22214,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1">
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -21943,7 +22230,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -21963,12 +22250,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="19.5" thickBot="1">
+    <row r="28" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -21984,7 +22271,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -22014,7 +22301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -22030,7 +22317,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -22046,7 +22333,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -22062,7 +22349,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -22078,7 +22365,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="16" t="str">

--- a/_data/ni/ni7879/individueel_eindstand_dworp_12_7879.xlsx
+++ b/_data/ni/ni7879/individueel_eindstand_dworp_12_7879.xlsx
@@ -8,32 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meneer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C96F42E-6ED5-43DE-9771-A190AFDDAF88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0AF86B15-ACF3-43FA-AFDA-246D1E612A92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="7812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="0" yWindow="-12" windowWidth="11508" windowHeight="7824" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="R1" sheetId="2" r:id="rId2"/>
-    <sheet name="R2" sheetId="5" r:id="rId3"/>
-    <sheet name="R3" sheetId="6" r:id="rId4"/>
-    <sheet name="R4" sheetId="7" r:id="rId5"/>
-    <sheet name="R5" sheetId="8" r:id="rId6"/>
-    <sheet name="R6" sheetId="9" r:id="rId7"/>
-    <sheet name="R7" sheetId="10" r:id="rId8"/>
-    <sheet name="R8" sheetId="11" r:id="rId9"/>
-    <sheet name="R9" sheetId="12" r:id="rId10"/>
-    <sheet name="R10" sheetId="13" r:id="rId11"/>
-    <sheet name="R11" sheetId="14" r:id="rId12"/>
-    <sheet name="Ranking" sheetId="17" r:id="rId13"/>
+    <sheet name="zoek de bye" sheetId="18" r:id="rId2"/>
+    <sheet name="R1" sheetId="14" r:id="rId3"/>
+    <sheet name="R2" sheetId="2" r:id="rId4"/>
+    <sheet name="R3" sheetId="5" r:id="rId5"/>
+    <sheet name="R4" sheetId="6" r:id="rId6"/>
+    <sheet name="R5" sheetId="7" r:id="rId7"/>
+    <sheet name="R6" sheetId="8" r:id="rId8"/>
+    <sheet name="R7" sheetId="9" r:id="rId9"/>
+    <sheet name="R8" sheetId="10" r:id="rId10"/>
+    <sheet name="R9" sheetId="11" r:id="rId11"/>
+    <sheet name="R10" sheetId="12" r:id="rId12"/>
+    <sheet name="R11" sheetId="13" r:id="rId13"/>
+    <sheet name="Ranking" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="272">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -583,9 +583,6 @@
     <t>Eddy</t>
   </si>
   <si>
-    <t>Initiële versie</t>
-  </si>
-  <si>
     <t>zo 30 jul. 2017 21:39</t>
   </si>
   <si>
@@ -660,6 +657,210 @@
   </si>
   <si>
     <t>Ons verstandig vonnis zal nog eens te pas komen. Ik heb in het seizoen 83-84 de grootste moeite om aanvaardbare cijfers te publiceren.</t>
+  </si>
+  <si>
+    <t>in mijn nota's staan tien speeldagen; eigenlijk waren er elf speeldagen waarvan één speeldag waarop Dworp 1 en 2 bye waren</t>
+  </si>
+  <si>
+    <t>volgens mijn studie op het volgende TAB-blad, is het onmogelijk een correct paringsnummer voor Dworp te bepalen.</t>
+  </si>
+  <si>
+    <t>01/12/2018: Herman Van de Wynkele suggereert dat Dworp 1 en 2 bye waren in ronde 1</t>
+  </si>
+  <si>
+    <t>Hij bezorgde mij een interclubpartij van 22 oktober 1978, gepubliceerd in het clubblad van KGSRL, die dat bewijst.</t>
+  </si>
+  <si>
+    <t>volgens mijn studie op het volgende TAB-blad, blijft het onmogelijk een correct paringsnummer voor Dworp te bepalen.</t>
+  </si>
+  <si>
+    <t>Het probleem is dat Dworp vier maal verkeerdelijk uit of thuis zou hebben gespeeld , wat niemand zal geloven, maar ook daarvoor heb ik een uitleg klaar</t>
+  </si>
+  <si>
+    <t>Dankzij die overwinning  mocht hij het in 1983 in de A-klasse proberen (zie google; Belgian chess history).</t>
+  </si>
+  <si>
+    <t>In de open categorie, Zwitsers, startte hij met twee aangekondigde forfaits en won de reeks met zeven punten op negen.</t>
+  </si>
+  <si>
+    <t>En die bezoeker, dat was Philippe Vandewegen (S.K. Deurne) die waarschijnlijk in 1982 deelnam aan het Belgisch kampioenschap.</t>
+  </si>
+  <si>
+    <t>Ze hebben nooit meer met mij willen schaken.</t>
+  </si>
+  <si>
+    <t>Ja mannen, ik moet jullie iets vertellen. Ik speel al enkele jaren in een schaakkring en deze bezoeker is nog veel sterker dan ik.</t>
+  </si>
+  <si>
+    <t>(slik!)</t>
+  </si>
+  <si>
+    <t>1900.</t>
+  </si>
+  <si>
+    <t>Hoeveel?</t>
+  </si>
+  <si>
+    <t>Ja.</t>
+  </si>
+  <si>
+    <t>Ik zeg ja, maar ik blijf op de vlakte met de vraag: heb jij elo?</t>
+  </si>
+  <si>
+    <t>s Avonds zat ik weer met iemand te schaken toen op de deur werd geklopt. Is het hier dat ze een schaakspeler zoeken?</t>
+  </si>
+  <si>
+    <t>Die 1300 elo moest de meeste keukenschakers afschrikken en de waarde stelt ook meer voor dan later want die elopunten werden na enkele jaren ernstig gerevalueerd.</t>
+  </si>
+  <si>
+    <t>Omdat altijd winnen gauw gaat vervelen, vroeg ik na een week de toelating om een annonce op het bord aan de ingang te schrijven. Schaakspeler gezocht, min. 1300 elo, kamer nummer zoveel …</t>
+  </si>
+  <si>
+    <t>Ik speelde de idiootste openingen en dagenlang begreep niemand waarom die beginneling al zijn partijen won.</t>
+  </si>
+  <si>
+    <t>De soldaten op mijn kamer drumden om eens tegen mij te kunnen spelen. Ik was één van de zeven op de tien die de reglementen kende; da's toch veel??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met drie jaar clubervaring op zak heb ik in Arolsen het boekje "c7, sufferd" van Bouwmeester gelezen. Belachelijk gemakkelijk maar wel goed om voor eventjes in cognito te blijven. </t>
+  </si>
+  <si>
+    <t>DEEL 4 epiloog:</t>
+  </si>
+  <si>
+    <t>Dat is in de loop der seizoenen meer dan eens gebeurd. Bij deze beseffen we wat de oorzaak van de onoplosbaarheid moet zijn geweest.</t>
+  </si>
+  <si>
+    <t>Kortom, het was dus een strenge winter. Mijn hypothese is nu heel eenvoudig dat de ronden niet in de numerieke volgorde werden betwist.</t>
+  </si>
+  <si>
+    <t>Het wapenplein lag totaal ondergesneewd, de vlaggengroet moest noodgedwongen enkele weken worden afgelast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op 1 maart werd ik overgeplaatst naar Arolsen aan de grens tussen Oost- en West-Duitsland. Met bulldozers had men de sneeuw meters hoog opgehoopt om de straat vrij te maken. </t>
+  </si>
+  <si>
+    <t>Op het tweede adres waagde ik wel mijn kans, ze lieten mij in hun badkamer en een kwartier later stond ik als soldaat weer in de schaakkring. François Mertens heeft mij die dag naar Peutie gevoerd.</t>
+  </si>
+  <si>
+    <t>Daarom vroeg ik of ze wisten waar Johan Lingier, de voorzitter van Reti Machelen, daar ergens woonde. Natuurlijk niet.</t>
+  </si>
+  <si>
+    <t>Toen een bejaard koppel open deed, bedacht ik dat ik met mijn vreemd plan niet aan het juiste adres was.</t>
+  </si>
+  <si>
+    <t>Na de partij ben ik met mijn valies vol soldatenkleren ergens gaan aanbellen om me te verkleden want we mochten niet in burgerkledij terugkeren.</t>
+  </si>
+  <si>
+    <t>Op 25 februari speelde Dworp met twee ploegen in Machelen. Ik mocht dat weekend naar huis maar moest zondagavond terug in Peutie zijn</t>
+  </si>
+  <si>
+    <t>Mensen die het konden weten, vertelden ons dat we geluk hadden. Gewoonlijk is het nat en drassig en moeten de soldaten in de modder ploeteren.</t>
+  </si>
+  <si>
+    <t>In februari 1979 kreeg ik in Peutie de opleiding van mijn legerdienst. Er lag en viel toen behoorlijk veel sneeuw in België. Wij moesten al onze oefeningen afwerken in de koude en in de sneeuw.</t>
+  </si>
+  <si>
+    <t>De ontmoeting Deinze - Dworp 2 werd verplaatst van 7 januari naar 21 januari. Klassieke oorzaak: slechte weersomstandigheden.</t>
+  </si>
+  <si>
+    <t>DEEL 3 commentaar:</t>
+  </si>
+  <si>
+    <t>Het probleem is nu dat Dworp vier maal verkeerdelijk uit of thuis zou gespeeld hebben (wat niemand zal geloven)</t>
+  </si>
+  <si>
+    <t>OK in deze ronde</t>
+  </si>
+  <si>
+    <t>blijft een probleem</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>of bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ronde </t>
+  </si>
+  <si>
+    <t>de toepassing</t>
+  </si>
+  <si>
+    <t>lotingsnummer</t>
+  </si>
+  <si>
+    <t>ter vergelijking</t>
+  </si>
+  <si>
+    <t>Berger-tabellen</t>
+  </si>
+  <si>
+    <t>Dat vereenvoudigt het speurwerk maar zal fundamenteel (nog) niets oplossen want als het voorgaande faalt, moet het vervolg ook ergens falen…</t>
+  </si>
+  <si>
+    <t>Hij bezorgde mij vervolgens een interclubpartij van 22 oktober 1978, gepubliceerd in het clubblad van KGSRL, die dat voldoende bewijst.</t>
+  </si>
+  <si>
+    <t>DEEL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De meest waarschijnlijke oplossing is dat Dworp bye was in de eerste ronde op 22 oktober 1978, zoals hierna aangegeven door Herman Van de Wynkele. </t>
+  </si>
+  <si>
+    <t>De NIC start jaarlijks na half oktober; in mijn nota's is de eerste speeldag op 5 november 1978. Dat is uitzonderlijk laat en dus weinig geloofwaardig.</t>
+  </si>
+  <si>
+    <t>ter informatie in cyaan en paars fluo: er bestaat zelfs geen lotingsnummer dat strookt met deze voorstellen</t>
+  </si>
+  <si>
+    <t>Dworp kan niet tegelijkertijd lotingsnummer 5 en 9 hebben gehad. Dit is onoplosbaar.</t>
+  </si>
+  <si>
+    <t>conclusie: geen enkele van de 11 mogelijkheden voldoet aan de gestelde voorwaarden.</t>
+  </si>
+  <si>
+    <t>in bruine fluo: lotingsnummer 9 heeft in de ronden 5 en 6 telkens zwart; door bye te zijn in de ronden 1 tot 4 kan Dworp lotingsnummer 9 hebben gehad.</t>
+  </si>
+  <si>
+    <t>in gele fluo: lotingsnummer 5 heeft in de ronden 9 en 10 telkens wit; door bye te zijn in de ronden 1 tot 8 kan Dworp lotingsnummer 5 hebben gehad.</t>
+  </si>
+  <si>
+    <t>lotingsnummers</t>
+  </si>
+  <si>
+    <t>we vervangen voor de duidelijkheid enkele zwarte velden door bruin of paars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we vervangen voor de duidelijkheid enkele witte velden door geel of cyaan; </t>
+  </si>
+  <si>
+    <t>in het diagram links gaan we op zoek naar een situatie die identiek is aan de situatie rechts</t>
+  </si>
+  <si>
+    <t>Dworp kan op elf momenten bye geweest zijn, dus bestaan er elf mogelijkheden</t>
+  </si>
+  <si>
+    <t>paringen van Dworp 1 en 2, seizoen 1978-1979</t>
+  </si>
+  <si>
+    <t>kleurtoewijzing volgens de Bergertabellen</t>
+  </si>
+  <si>
+    <t>DEEL 1</t>
+  </si>
+  <si>
+    <t>zo 6 jan. 2018</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>1 punt per ontmoeting+2 per ploegoverwinning+1 per ploegdrawn</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -670,7 +871,7 @@
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,8 +965,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,8 +1063,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1295,13 +1538,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,6 +1825,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1885,10 +2212,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1984,62 +2310,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" t="s">
-        <v>181</v>
-      </c>
       <c r="C20" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+      <c r="A21" t="s">
         <v>183</v>
       </c>
+      <c r="B21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>184</v>
-      </c>
-      <c r="B22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="92" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2048,13 +2374,13 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+      <c r="C24" s="92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="92" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2093,17 +2419,17 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B34" t="s">
-        <v>181</v>
-      </c>
       <c r="C34" t="s">
         <v>196</v>
       </c>
@@ -2129,24 +2455,55 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>202</v>
-      </c>
-      <c r="B40" t="s">
-        <v>178</v>
-      </c>
       <c r="C40" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" t="s">
+        <v>178</v>
+      </c>
       <c r="C41" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2156,11 +2513,732 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="20">
+        <v>28911</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>19372</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+      <c r="H6" s="19">
+        <v>19313</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19">
+        <v>19402</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
+        <v>3</v>
+      </c>
+      <c r="H8" s="19">
+        <v>31526</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="16" t="str">
+        <f>IFERROR(AVERAGE(D5:D10),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="13">
+        <v>6</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="13">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="16">
+        <f>IFERROR(AVERAGE(J5:J10),"")</f>
+        <v>1555</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3</v>
+      </c>
+      <c r="H16" s="19">
+        <v>76325</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>3</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3</v>
+      </c>
+      <c r="H17" s="19">
+        <v>76333</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
+        <v>3</v>
+      </c>
+      <c r="H18" s="19">
+        <v>76317</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="16" t="str">
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="13">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="13">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="16">
+        <f>IFERROR(AVERAGE(J15:J18),"")</f>
+        <v>1239.5</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>3</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>4</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="16" t="str">
+        <f>IFERROR(AVERAGE(D23:D26),"")</f>
+        <v/>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="16" t="str">
+        <f>IFERROR(AVERAGE(J23:J26),"")</f>
+        <v/>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>2</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="16" t="str">
+        <f>IFERROR(AVERAGE(D31:D34),"")</f>
+        <v/>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="16" t="str">
+        <f>IFERROR(AVERAGE(J31:J34),"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2185,7 +3263,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="20">
-        <v>28925</v>
+        <v>28918</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -2209,7 +3287,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2267,7 +3345,7 @@
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -2285,17 +3363,17 @@
         <v>1597</v>
       </c>
       <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
         <v>3</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -2323,7 +3401,7 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -2351,7 +3429,7 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J8" s="18"/>
     </row>
@@ -2396,13 +3474,13 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="16" t="str">
@@ -2429,10 +3507,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2490,7 +3568,7 @@
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="14" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J15" s="18"/>
     </row>
@@ -2508,7 +3586,7 @@
         <v>1317</v>
       </c>
       <c r="E16" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>10</v>
@@ -2518,22 +3596,22 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>52</v>
+      <c r="B17" s="19">
+        <v>76333</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D17" s="18">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -2542,58 +3620,66 @@
         <v>10</v>
       </c>
       <c r="G17" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="14" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
       <c r="B18" s="19">
-        <v>76333</v>
+        <v>76317</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D18" s="18">
-        <v>1177</v>
+        <v>1136</v>
       </c>
       <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
         <v>3</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12">
-        <v>1</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1248.75</v>
+        <v>1239.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16" t="str">
@@ -2602,12 +3688,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -2623,7 +3709,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2653,7 +3739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -2669,7 +3755,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -2685,7 +3771,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -2701,7 +3787,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -2717,7 +3803,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16" t="str">
@@ -2737,12 +3823,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -2758,7 +3844,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2788,7 +3874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -2804,7 +3890,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -2878,12 +3964,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2908,7 +3993,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="20">
-        <v>28939</v>
+        <v>28925</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -2922,7 +4007,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2932,7 +4017,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2970,67 +4055,71 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>19372</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1612</v>
+      </c>
       <c r="E5" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="10">
-        <v>2</v>
-      </c>
-      <c r="H5" s="19">
-        <v>19372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="18">
-        <v>1612</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>19313</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1597</v>
+      </c>
       <c r="E6" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="10">
-        <v>3</v>
-      </c>
-      <c r="H6" s="19">
-        <v>19313</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="18">
-        <v>1597</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>19402</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1548</v>
+      </c>
       <c r="E7" s="10">
         <v>3</v>
       </c>
@@ -3040,43 +4129,39 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="19">
-        <v>19402</v>
-      </c>
+      <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="18">
-        <v>1548</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>31526</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1463</v>
+      </c>
       <c r="E8" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="10">
-        <v>3</v>
-      </c>
-      <c r="H8" s="19">
-        <v>31526</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="18">
-        <v>1463</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -3113,24 +4198,24 @@
     <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1555</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16">
+      <c r="I11" s="16" t="str">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1555</v>
+        <v/>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -3145,7 +4230,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3155,7 +4240,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -3193,39 +4278,43 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1328</v>
+      </c>
       <c r="E15" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="10">
-        <v>2</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>52</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="19"/>
       <c r="I15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="18">
-        <v>1328</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>76325</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1317</v>
+      </c>
       <c r="E16" s="10">
         <v>3</v>
       </c>
@@ -3233,29 +4322,29 @@
         <v>10</v>
       </c>
       <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>52</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H16" s="19"/>
       <c r="I16" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="18">
-        <v>1173</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1173</v>
+      </c>
       <c r="E17" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>10</v>
@@ -3263,25 +4352,25 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19">
-        <v>76317</v>
-      </c>
+      <c r="H17" s="19"/>
       <c r="I17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="18">
-        <v>1136</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>76333</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1177</v>
+      </c>
       <c r="E18" s="12">
         <v>3</v>
       </c>
@@ -3291,37 +4380,33 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19">
-        <v>93073</v>
-      </c>
+      <c r="H18" s="19"/>
       <c r="I18" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="18">
-        <v>1136</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1248.75</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16">
+      <c r="I19" s="16" t="str">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1193.25</v>
+        <v/>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -3601,12 +4686,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3630,7 +4714,9 @@
       <c r="B1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="20">
+        <v>28939</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
@@ -3640,9 +4726,11 @@
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3650,7 +4738,9 @@
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3688,64 +4778,112 @@
         <v>1</v>
       </c>
       <c r="B5" s="19"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>143</v>
+      </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
       <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="18"/>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="19">
+        <v>19372</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1612</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
       <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="18"/>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+      <c r="H6" s="19">
+        <v>19313</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1597</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>145</v>
+      </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10">
+        <v>3</v>
+      </c>
       <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="18"/>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>19402</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1548</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
       <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="18"/>
+      <c r="G8" s="10">
+        <v>3</v>
+      </c>
+      <c r="H8" s="19">
+        <v>31526</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1463</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -3787,15 +4925,19 @@
         <v/>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="13">
+        <v>7</v>
+      </c>
       <c r="F11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13">
+        <v>9</v>
+      </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1555</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -3809,15 +4951,19 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -3855,64 +5001,112 @@
         <v>1</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" s="18"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
       <c r="F15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="18"/>
+      <c r="G15" s="10">
+        <v>2</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1328</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
       <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="18"/>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1173</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10">
+        <v>3</v>
+      </c>
       <c r="F17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="18"/>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>76317</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1136</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="D18" s="18"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>3</v>
+      </c>
       <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="18"/>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19">
+        <v>93073</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
@@ -3922,15 +5116,19 @@
         <v/>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13">
+        <v>11</v>
+      </c>
       <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13">
+        <v>5</v>
+      </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1212.3333333333333</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -4210,14 +5408,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:BD280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4240,10 +5437,27 @@
       <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="P1" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
     </row>
     <row r="2" spans="1:56" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>14</v>
+      </c>
+      <c r="P2" s="123" t="s">
+        <v>271</v>
       </c>
       <c r="S2" s="77" t="s">
         <v>163</v>
@@ -16583,11 +17797,1473 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8619D2-C189-4CC0-9956-1DDAC8CA77DE}">
+  <dimension ref="A3:AM115"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="U120" sqref="U120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" style="93" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="93" customWidth="1"/>
+    <col min="3" max="246" width="4.109375" style="93"/>
+    <col min="247" max="257" width="4.109375" style="93" customWidth="1"/>
+    <col min="258" max="258" width="6.88671875" style="93" customWidth="1"/>
+    <col min="259" max="502" width="4.109375" style="93"/>
+    <col min="503" max="513" width="4.109375" style="93" customWidth="1"/>
+    <col min="514" max="514" width="6.88671875" style="93" customWidth="1"/>
+    <col min="515" max="758" width="4.109375" style="93"/>
+    <col min="759" max="769" width="4.109375" style="93" customWidth="1"/>
+    <col min="770" max="770" width="6.88671875" style="93" customWidth="1"/>
+    <col min="771" max="1014" width="4.109375" style="93"/>
+    <col min="1015" max="1025" width="4.109375" style="93" customWidth="1"/>
+    <col min="1026" max="1026" width="6.88671875" style="93" customWidth="1"/>
+    <col min="1027" max="1270" width="4.109375" style="93"/>
+    <col min="1271" max="1281" width="4.109375" style="93" customWidth="1"/>
+    <col min="1282" max="1282" width="6.88671875" style="93" customWidth="1"/>
+    <col min="1283" max="1526" width="4.109375" style="93"/>
+    <col min="1527" max="1537" width="4.109375" style="93" customWidth="1"/>
+    <col min="1538" max="1538" width="6.88671875" style="93" customWidth="1"/>
+    <col min="1539" max="1782" width="4.109375" style="93"/>
+    <col min="1783" max="1793" width="4.109375" style="93" customWidth="1"/>
+    <col min="1794" max="1794" width="6.88671875" style="93" customWidth="1"/>
+    <col min="1795" max="2038" width="4.109375" style="93"/>
+    <col min="2039" max="2049" width="4.109375" style="93" customWidth="1"/>
+    <col min="2050" max="2050" width="6.88671875" style="93" customWidth="1"/>
+    <col min="2051" max="2294" width="4.109375" style="93"/>
+    <col min="2295" max="2305" width="4.109375" style="93" customWidth="1"/>
+    <col min="2306" max="2306" width="6.88671875" style="93" customWidth="1"/>
+    <col min="2307" max="2550" width="4.109375" style="93"/>
+    <col min="2551" max="2561" width="4.109375" style="93" customWidth="1"/>
+    <col min="2562" max="2562" width="6.88671875" style="93" customWidth="1"/>
+    <col min="2563" max="2806" width="4.109375" style="93"/>
+    <col min="2807" max="2817" width="4.109375" style="93" customWidth="1"/>
+    <col min="2818" max="2818" width="6.88671875" style="93" customWidth="1"/>
+    <col min="2819" max="3062" width="4.109375" style="93"/>
+    <col min="3063" max="3073" width="4.109375" style="93" customWidth="1"/>
+    <col min="3074" max="3074" width="6.88671875" style="93" customWidth="1"/>
+    <col min="3075" max="3318" width="4.109375" style="93"/>
+    <col min="3319" max="3329" width="4.109375" style="93" customWidth="1"/>
+    <col min="3330" max="3330" width="6.88671875" style="93" customWidth="1"/>
+    <col min="3331" max="3574" width="4.109375" style="93"/>
+    <col min="3575" max="3585" width="4.109375" style="93" customWidth="1"/>
+    <col min="3586" max="3586" width="6.88671875" style="93" customWidth="1"/>
+    <col min="3587" max="3830" width="4.109375" style="93"/>
+    <col min="3831" max="3841" width="4.109375" style="93" customWidth="1"/>
+    <col min="3842" max="3842" width="6.88671875" style="93" customWidth="1"/>
+    <col min="3843" max="4086" width="4.109375" style="93"/>
+    <col min="4087" max="4097" width="4.109375" style="93" customWidth="1"/>
+    <col min="4098" max="4098" width="6.88671875" style="93" customWidth="1"/>
+    <col min="4099" max="4342" width="4.109375" style="93"/>
+    <col min="4343" max="4353" width="4.109375" style="93" customWidth="1"/>
+    <col min="4354" max="4354" width="6.88671875" style="93" customWidth="1"/>
+    <col min="4355" max="4598" width="4.109375" style="93"/>
+    <col min="4599" max="4609" width="4.109375" style="93" customWidth="1"/>
+    <col min="4610" max="4610" width="6.88671875" style="93" customWidth="1"/>
+    <col min="4611" max="4854" width="4.109375" style="93"/>
+    <col min="4855" max="4865" width="4.109375" style="93" customWidth="1"/>
+    <col min="4866" max="4866" width="6.88671875" style="93" customWidth="1"/>
+    <col min="4867" max="5110" width="4.109375" style="93"/>
+    <col min="5111" max="5121" width="4.109375" style="93" customWidth="1"/>
+    <col min="5122" max="5122" width="6.88671875" style="93" customWidth="1"/>
+    <col min="5123" max="5366" width="4.109375" style="93"/>
+    <col min="5367" max="5377" width="4.109375" style="93" customWidth="1"/>
+    <col min="5378" max="5378" width="6.88671875" style="93" customWidth="1"/>
+    <col min="5379" max="5622" width="4.109375" style="93"/>
+    <col min="5623" max="5633" width="4.109375" style="93" customWidth="1"/>
+    <col min="5634" max="5634" width="6.88671875" style="93" customWidth="1"/>
+    <col min="5635" max="5878" width="4.109375" style="93"/>
+    <col min="5879" max="5889" width="4.109375" style="93" customWidth="1"/>
+    <col min="5890" max="5890" width="6.88671875" style="93" customWidth="1"/>
+    <col min="5891" max="6134" width="4.109375" style="93"/>
+    <col min="6135" max="6145" width="4.109375" style="93" customWidth="1"/>
+    <col min="6146" max="6146" width="6.88671875" style="93" customWidth="1"/>
+    <col min="6147" max="6390" width="4.109375" style="93"/>
+    <col min="6391" max="6401" width="4.109375" style="93" customWidth="1"/>
+    <col min="6402" max="6402" width="6.88671875" style="93" customWidth="1"/>
+    <col min="6403" max="6646" width="4.109375" style="93"/>
+    <col min="6647" max="6657" width="4.109375" style="93" customWidth="1"/>
+    <col min="6658" max="6658" width="6.88671875" style="93" customWidth="1"/>
+    <col min="6659" max="6902" width="4.109375" style="93"/>
+    <col min="6903" max="6913" width="4.109375" style="93" customWidth="1"/>
+    <col min="6914" max="6914" width="6.88671875" style="93" customWidth="1"/>
+    <col min="6915" max="7158" width="4.109375" style="93"/>
+    <col min="7159" max="7169" width="4.109375" style="93" customWidth="1"/>
+    <col min="7170" max="7170" width="6.88671875" style="93" customWidth="1"/>
+    <col min="7171" max="7414" width="4.109375" style="93"/>
+    <col min="7415" max="7425" width="4.109375" style="93" customWidth="1"/>
+    <col min="7426" max="7426" width="6.88671875" style="93" customWidth="1"/>
+    <col min="7427" max="7670" width="4.109375" style="93"/>
+    <col min="7671" max="7681" width="4.109375" style="93" customWidth="1"/>
+    <col min="7682" max="7682" width="6.88671875" style="93" customWidth="1"/>
+    <col min="7683" max="7926" width="4.109375" style="93"/>
+    <col min="7927" max="7937" width="4.109375" style="93" customWidth="1"/>
+    <col min="7938" max="7938" width="6.88671875" style="93" customWidth="1"/>
+    <col min="7939" max="8182" width="4.109375" style="93"/>
+    <col min="8183" max="8193" width="4.109375" style="93" customWidth="1"/>
+    <col min="8194" max="8194" width="6.88671875" style="93" customWidth="1"/>
+    <col min="8195" max="8438" width="4.109375" style="93"/>
+    <col min="8439" max="8449" width="4.109375" style="93" customWidth="1"/>
+    <col min="8450" max="8450" width="6.88671875" style="93" customWidth="1"/>
+    <col min="8451" max="8694" width="4.109375" style="93"/>
+    <col min="8695" max="8705" width="4.109375" style="93" customWidth="1"/>
+    <col min="8706" max="8706" width="6.88671875" style="93" customWidth="1"/>
+    <col min="8707" max="8950" width="4.109375" style="93"/>
+    <col min="8951" max="8961" width="4.109375" style="93" customWidth="1"/>
+    <col min="8962" max="8962" width="6.88671875" style="93" customWidth="1"/>
+    <col min="8963" max="9206" width="4.109375" style="93"/>
+    <col min="9207" max="9217" width="4.109375" style="93" customWidth="1"/>
+    <col min="9218" max="9218" width="6.88671875" style="93" customWidth="1"/>
+    <col min="9219" max="9462" width="4.109375" style="93"/>
+    <col min="9463" max="9473" width="4.109375" style="93" customWidth="1"/>
+    <col min="9474" max="9474" width="6.88671875" style="93" customWidth="1"/>
+    <col min="9475" max="9718" width="4.109375" style="93"/>
+    <col min="9719" max="9729" width="4.109375" style="93" customWidth="1"/>
+    <col min="9730" max="9730" width="6.88671875" style="93" customWidth="1"/>
+    <col min="9731" max="9974" width="4.109375" style="93"/>
+    <col min="9975" max="9985" width="4.109375" style="93" customWidth="1"/>
+    <col min="9986" max="9986" width="6.88671875" style="93" customWidth="1"/>
+    <col min="9987" max="10230" width="4.109375" style="93"/>
+    <col min="10231" max="10241" width="4.109375" style="93" customWidth="1"/>
+    <col min="10242" max="10242" width="6.88671875" style="93" customWidth="1"/>
+    <col min="10243" max="10486" width="4.109375" style="93"/>
+    <col min="10487" max="10497" width="4.109375" style="93" customWidth="1"/>
+    <col min="10498" max="10498" width="6.88671875" style="93" customWidth="1"/>
+    <col min="10499" max="10742" width="4.109375" style="93"/>
+    <col min="10743" max="10753" width="4.109375" style="93" customWidth="1"/>
+    <col min="10754" max="10754" width="6.88671875" style="93" customWidth="1"/>
+    <col min="10755" max="10998" width="4.109375" style="93"/>
+    <col min="10999" max="11009" width="4.109375" style="93" customWidth="1"/>
+    <col min="11010" max="11010" width="6.88671875" style="93" customWidth="1"/>
+    <col min="11011" max="11254" width="4.109375" style="93"/>
+    <col min="11255" max="11265" width="4.109375" style="93" customWidth="1"/>
+    <col min="11266" max="11266" width="6.88671875" style="93" customWidth="1"/>
+    <col min="11267" max="11510" width="4.109375" style="93"/>
+    <col min="11511" max="11521" width="4.109375" style="93" customWidth="1"/>
+    <col min="11522" max="11522" width="6.88671875" style="93" customWidth="1"/>
+    <col min="11523" max="11766" width="4.109375" style="93"/>
+    <col min="11767" max="11777" width="4.109375" style="93" customWidth="1"/>
+    <col min="11778" max="11778" width="6.88671875" style="93" customWidth="1"/>
+    <col min="11779" max="12022" width="4.109375" style="93"/>
+    <col min="12023" max="12033" width="4.109375" style="93" customWidth="1"/>
+    <col min="12034" max="12034" width="6.88671875" style="93" customWidth="1"/>
+    <col min="12035" max="12278" width="4.109375" style="93"/>
+    <col min="12279" max="12289" width="4.109375" style="93" customWidth="1"/>
+    <col min="12290" max="12290" width="6.88671875" style="93" customWidth="1"/>
+    <col min="12291" max="12534" width="4.109375" style="93"/>
+    <col min="12535" max="12545" width="4.109375" style="93" customWidth="1"/>
+    <col min="12546" max="12546" width="6.88671875" style="93" customWidth="1"/>
+    <col min="12547" max="12790" width="4.109375" style="93"/>
+    <col min="12791" max="12801" width="4.109375" style="93" customWidth="1"/>
+    <col min="12802" max="12802" width="6.88671875" style="93" customWidth="1"/>
+    <col min="12803" max="13046" width="4.109375" style="93"/>
+    <col min="13047" max="13057" width="4.109375" style="93" customWidth="1"/>
+    <col min="13058" max="13058" width="6.88671875" style="93" customWidth="1"/>
+    <col min="13059" max="13302" width="4.109375" style="93"/>
+    <col min="13303" max="13313" width="4.109375" style="93" customWidth="1"/>
+    <col min="13314" max="13314" width="6.88671875" style="93" customWidth="1"/>
+    <col min="13315" max="13558" width="4.109375" style="93"/>
+    <col min="13559" max="13569" width="4.109375" style="93" customWidth="1"/>
+    <col min="13570" max="13570" width="6.88671875" style="93" customWidth="1"/>
+    <col min="13571" max="13814" width="4.109375" style="93"/>
+    <col min="13815" max="13825" width="4.109375" style="93" customWidth="1"/>
+    <col min="13826" max="13826" width="6.88671875" style="93" customWidth="1"/>
+    <col min="13827" max="14070" width="4.109375" style="93"/>
+    <col min="14071" max="14081" width="4.109375" style="93" customWidth="1"/>
+    <col min="14082" max="14082" width="6.88671875" style="93" customWidth="1"/>
+    <col min="14083" max="14326" width="4.109375" style="93"/>
+    <col min="14327" max="14337" width="4.109375" style="93" customWidth="1"/>
+    <col min="14338" max="14338" width="6.88671875" style="93" customWidth="1"/>
+    <col min="14339" max="14582" width="4.109375" style="93"/>
+    <col min="14583" max="14593" width="4.109375" style="93" customWidth="1"/>
+    <col min="14594" max="14594" width="6.88671875" style="93" customWidth="1"/>
+    <col min="14595" max="14838" width="4.109375" style="93"/>
+    <col min="14839" max="14849" width="4.109375" style="93" customWidth="1"/>
+    <col min="14850" max="14850" width="6.88671875" style="93" customWidth="1"/>
+    <col min="14851" max="15094" width="4.109375" style="93"/>
+    <col min="15095" max="15105" width="4.109375" style="93" customWidth="1"/>
+    <col min="15106" max="15106" width="6.88671875" style="93" customWidth="1"/>
+    <col min="15107" max="15350" width="4.109375" style="93"/>
+    <col min="15351" max="15361" width="4.109375" style="93" customWidth="1"/>
+    <col min="15362" max="15362" width="6.88671875" style="93" customWidth="1"/>
+    <col min="15363" max="15606" width="4.109375" style="93"/>
+    <col min="15607" max="15617" width="4.109375" style="93" customWidth="1"/>
+    <col min="15618" max="15618" width="6.88671875" style="93" customWidth="1"/>
+    <col min="15619" max="15862" width="4.109375" style="93"/>
+    <col min="15863" max="15873" width="4.109375" style="93" customWidth="1"/>
+    <col min="15874" max="15874" width="6.88671875" style="93" customWidth="1"/>
+    <col min="15875" max="16118" width="4.109375" style="93"/>
+    <col min="16119" max="16129" width="4.109375" style="93" customWidth="1"/>
+    <col min="16130" max="16130" width="6.88671875" style="93" customWidth="1"/>
+    <col min="16131" max="16384" width="4.109375" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+    </row>
+    <row r="4" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+    </row>
+    <row r="5" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C6" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="W6" s="93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="S7" s="93" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="K9" s="93" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D10" s="93">
+        <v>1</v>
+      </c>
+      <c r="E10" s="93">
+        <v>2</v>
+      </c>
+      <c r="F10" s="93">
+        <v>3</v>
+      </c>
+      <c r="G10" s="93">
+        <v>4</v>
+      </c>
+      <c r="H10" s="93">
+        <v>5</v>
+      </c>
+      <c r="I10" s="93">
+        <v>6</v>
+      </c>
+      <c r="J10" s="93">
+        <v>7</v>
+      </c>
+      <c r="K10" s="93">
+        <v>8</v>
+      </c>
+      <c r="L10" s="93">
+        <v>9</v>
+      </c>
+      <c r="M10" s="93">
+        <v>10</v>
+      </c>
+      <c r="N10" s="93">
+        <v>11</v>
+      </c>
+      <c r="O10" s="93">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B11" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="100">
+        <v>1</v>
+      </c>
+      <c r="E11" s="100"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="S11" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="U11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="122"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="122"/>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="122"/>
+      <c r="AM11" s="106"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100">
+        <v>2</v>
+      </c>
+      <c r="D12" s="118"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="S12" s="101"/>
+      <c r="U12" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="W12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="AA12" s="105"/>
+      <c r="AC12" s="105"/>
+      <c r="AE12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AI12" s="105"/>
+      <c r="AK12" s="105"/>
+      <c r="AM12" s="105"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="100"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100">
+        <v>3</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="100"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="S13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="W13" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AC13" s="101"/>
+      <c r="AE13" s="116"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="116"/>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="116"/>
+      <c r="AM13" s="101"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="100"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100">
+        <v>4</v>
+      </c>
+      <c r="D14" s="118"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="S14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="Y14" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA14" s="105"/>
+      <c r="AC14" s="105"/>
+      <c r="AE14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AI14" s="105"/>
+      <c r="AK14" s="105"/>
+      <c r="AM14" s="105"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="100"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100">
+        <v>5</v>
+      </c>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="S15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="AA15" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AK15" s="105"/>
+      <c r="AM15" s="105"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100">
+        <v>6</v>
+      </c>
+      <c r="D16" s="118"/>
+      <c r="E16" s="100"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="S16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="AA16" s="105"/>
+      <c r="AC16" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="116"/>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="116"/>
+      <c r="AM16" s="101"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100">
+        <v>7</v>
+      </c>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="S17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="AA17" s="101"/>
+      <c r="AC17" s="101"/>
+      <c r="AE17" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="105"/>
+      <c r="AI17" s="105"/>
+      <c r="AK17" s="105"/>
+      <c r="AM17" s="105"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="100"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100">
+        <v>8</v>
+      </c>
+      <c r="D18" s="118"/>
+      <c r="E18" s="100"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="S18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="Y18" s="105"/>
+      <c r="AA18" s="105"/>
+      <c r="AC18" s="105"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="96"/>
+      <c r="AG18" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH18" s="96"/>
+      <c r="AI18" s="116"/>
+      <c r="AJ18" s="96"/>
+      <c r="AK18" s="116"/>
+      <c r="AM18" s="101"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100">
+        <v>9</v>
+      </c>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="S19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="Y19" s="101"/>
+      <c r="AA19" s="101"/>
+      <c r="AC19" s="101"/>
+      <c r="AE19" s="116"/>
+      <c r="AF19" s="96"/>
+      <c r="AG19" s="116"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ19" s="96"/>
+      <c r="AK19" s="116"/>
+      <c r="AM19" s="101"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100">
+        <v>10</v>
+      </c>
+      <c r="D20" s="118"/>
+      <c r="E20" s="100"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="S20" s="101"/>
+      <c r="U20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="AA20" s="101"/>
+      <c r="AC20" s="101"/>
+      <c r="AE20" s="116"/>
+      <c r="AF20" s="96"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="96"/>
+      <c r="AI20" s="116"/>
+      <c r="AJ20" s="96"/>
+      <c r="AK20" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM20" s="105"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100">
+        <v>11</v>
+      </c>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="S21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="96"/>
+      <c r="AG21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AK21" s="98"/>
+      <c r="AM21" s="114" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="100"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D23" s="93" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D24" s="93" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D25" s="93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="K27" s="93" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D28" s="93">
+        <v>1</v>
+      </c>
+      <c r="E28" s="93">
+        <v>2</v>
+      </c>
+      <c r="F28" s="93">
+        <v>3</v>
+      </c>
+      <c r="G28" s="93">
+        <v>4</v>
+      </c>
+      <c r="H28" s="93">
+        <v>5</v>
+      </c>
+      <c r="I28" s="93">
+        <v>6</v>
+      </c>
+      <c r="J28" s="93">
+        <v>7</v>
+      </c>
+      <c r="K28" s="93">
+        <v>8</v>
+      </c>
+      <c r="L28" s="93">
+        <v>9</v>
+      </c>
+      <c r="M28" s="93">
+        <v>10</v>
+      </c>
+      <c r="N28" s="93">
+        <v>11</v>
+      </c>
+      <c r="O28" s="93">
+        <v>12</v>
+      </c>
+      <c r="T28" s="96"/>
+      <c r="V28" s="96"/>
+      <c r="X28" s="96"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B29" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="100">
+        <v>1</v>
+      </c>
+      <c r="E29" s="100"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="115"/>
+      <c r="S29" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="T29" s="96"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="96"/>
+      <c r="Y29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AC29" s="106"/>
+      <c r="AE29" s="122"/>
+      <c r="AF29" s="96"/>
+      <c r="AG29" s="122"/>
+      <c r="AH29" s="96"/>
+      <c r="AI29" s="122"/>
+      <c r="AJ29" s="96"/>
+      <c r="AK29" s="122"/>
+      <c r="AM29" s="106"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="100"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100">
+        <v>2</v>
+      </c>
+      <c r="D30" s="118"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="V30" s="96"/>
+      <c r="W30" s="105"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="105"/>
+      <c r="AA30" s="105"/>
+      <c r="AC30" s="105"/>
+      <c r="AE30" s="105"/>
+      <c r="AG30" s="105"/>
+      <c r="AI30" s="105"/>
+      <c r="AK30" s="105"/>
+      <c r="AM30" s="105"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="100"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100">
+        <v>3</v>
+      </c>
+      <c r="D31" s="115"/>
+      <c r="E31" s="100"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="105"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="101"/>
+      <c r="AA31" s="101"/>
+      <c r="AC31" s="101"/>
+      <c r="AE31" s="116"/>
+      <c r="AF31" s="96"/>
+      <c r="AG31" s="116"/>
+      <c r="AH31" s="96"/>
+      <c r="AI31" s="116"/>
+      <c r="AJ31" s="96"/>
+      <c r="AK31" s="116"/>
+      <c r="AM31" s="101"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" s="100"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100">
+        <v>4</v>
+      </c>
+      <c r="D32" s="118"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA32" s="105"/>
+      <c r="AC32" s="121"/>
+      <c r="AE32" s="121"/>
+      <c r="AG32" s="121"/>
+      <c r="AI32" s="121"/>
+      <c r="AK32" s="121"/>
+      <c r="AM32" s="121"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="100"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100">
+        <v>5</v>
+      </c>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="S33" s="120"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="120"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="120"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="120"/>
+      <c r="AA33" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC33" s="121"/>
+      <c r="AE33" s="121"/>
+      <c r="AG33" s="121"/>
+      <c r="AI33" s="121"/>
+      <c r="AK33" s="121"/>
+      <c r="AM33" s="121"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100">
+        <v>6</v>
+      </c>
+      <c r="D34" s="118"/>
+      <c r="E34" s="100"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="120"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="96"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="96"/>
+      <c r="Y34" s="120"/>
+      <c r="AA34" s="105"/>
+      <c r="AC34" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE34" s="116"/>
+      <c r="AF34" s="96"/>
+      <c r="AG34" s="116"/>
+      <c r="AH34" s="96"/>
+      <c r="AI34" s="116"/>
+      <c r="AJ34" s="96"/>
+      <c r="AK34" s="116"/>
+      <c r="AM34" s="101"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100">
+        <v>7</v>
+      </c>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="115"/>
+      <c r="S35" s="101"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="96"/>
+      <c r="W35" s="101"/>
+      <c r="X35" s="96"/>
+      <c r="Y35" s="101"/>
+      <c r="AA35" s="101"/>
+      <c r="AC35" s="101"/>
+      <c r="AE35" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF35" s="96"/>
+      <c r="AG35" s="105"/>
+      <c r="AI35" s="105"/>
+      <c r="AK35" s="105"/>
+      <c r="AM35" s="105"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" s="100"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100">
+        <v>8</v>
+      </c>
+      <c r="D36" s="118"/>
+      <c r="E36" s="100"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="96"/>
+      <c r="U36" s="105"/>
+      <c r="V36" s="96"/>
+      <c r="W36" s="105"/>
+      <c r="X36" s="96"/>
+      <c r="Y36" s="105"/>
+      <c r="AA36" s="105"/>
+      <c r="AC36" s="105"/>
+      <c r="AE36" s="105"/>
+      <c r="AF36" s="96"/>
+      <c r="AG36" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH36" s="96"/>
+      <c r="AI36" s="116"/>
+      <c r="AJ36" s="96"/>
+      <c r="AK36" s="119"/>
+      <c r="AM36" s="119"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" s="100"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100">
+        <v>9</v>
+      </c>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="103"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="115"/>
+      <c r="S37" s="117"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="117"/>
+      <c r="X37" s="96"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="96"/>
+      <c r="AA37" s="117"/>
+      <c r="AB37" s="96"/>
+      <c r="AC37" s="117"/>
+      <c r="AD37" s="96"/>
+      <c r="AE37" s="117"/>
+      <c r="AG37" s="117"/>
+      <c r="AH37" s="96"/>
+      <c r="AI37" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ37" s="96"/>
+      <c r="AK37" s="119"/>
+      <c r="AM37" s="119"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38" s="100"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100">
+        <v>10</v>
+      </c>
+      <c r="D38" s="118"/>
+      <c r="E38" s="100"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="115"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="96"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="96"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="96"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="96"/>
+      <c r="AC38" s="117"/>
+      <c r="AD38" s="96"/>
+      <c r="AE38" s="117"/>
+      <c r="AG38" s="117"/>
+      <c r="AH38" s="96"/>
+      <c r="AI38" s="116"/>
+      <c r="AJ38" s="96"/>
+      <c r="AK38" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM38" s="105"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" s="100"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100">
+        <v>11</v>
+      </c>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="S39" s="98"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="98"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="98"/>
+      <c r="X39" s="96"/>
+      <c r="Y39" s="98"/>
+      <c r="AA39" s="98"/>
+      <c r="AC39" s="98"/>
+      <c r="AE39" s="98"/>
+      <c r="AF39" s="96"/>
+      <c r="AG39" s="98"/>
+      <c r="AI39" s="98"/>
+      <c r="AK39" s="98"/>
+      <c r="AM39" s="114" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="T40" s="96"/>
+      <c r="V40" s="96"/>
+      <c r="X40" s="96"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D41" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="T41" s="96"/>
+      <c r="V41" s="96"/>
+      <c r="X41" s="96"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D42" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="T42" s="96"/>
+      <c r="V42" s="96"/>
+      <c r="X42" s="96"/>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D44" s="113" t="s">
+        <v>257</v>
+      </c>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="112"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="112"/>
+      <c r="P44" s="112"/>
+      <c r="Q44" s="112"/>
+      <c r="R44" s="112"/>
+      <c r="S44" s="112"/>
+      <c r="T44" s="112"/>
+      <c r="U44" s="112"/>
+      <c r="V44" s="112"/>
+      <c r="W44" s="112"/>
+      <c r="X44" s="111"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D45" s="110" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="109"/>
+      <c r="O45" s="109"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="109"/>
+      <c r="V45" s="109"/>
+      <c r="W45" s="109"/>
+      <c r="X45" s="108"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D46" s="93" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D48" s="93" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D49" s="93" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D54" s="107" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D55" s="93" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D56" s="93" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D59" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="J59" s="93" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D60" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="J60" s="93" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D61" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="100">
+        <v>1</v>
+      </c>
+      <c r="D62" s="106"/>
+      <c r="E62" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="J62" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="L62" s="93" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="100"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="100">
+        <v>2</v>
+      </c>
+      <c r="D63" s="102"/>
+      <c r="J63" s="101"/>
+      <c r="L63" s="93" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="100"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100">
+        <v>3</v>
+      </c>
+      <c r="D64" s="104"/>
+      <c r="J64" s="105"/>
+      <c r="L64" s="93" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="100"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="100">
+        <v>4</v>
+      </c>
+      <c r="D65" s="102"/>
+      <c r="J65" s="101"/>
+      <c r="L65" s="93" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="100"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="100">
+        <v>5</v>
+      </c>
+      <c r="D66" s="104"/>
+      <c r="J66" s="105"/>
+      <c r="L66" s="93" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="100"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="100">
+        <v>6</v>
+      </c>
+      <c r="D67" s="102"/>
+      <c r="J67" s="105"/>
+      <c r="L67" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="M67" s="103"/>
+      <c r="N67" s="103"/>
+      <c r="O67" s="103"/>
+      <c r="P67" s="103"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="100"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100">
+        <v>7</v>
+      </c>
+      <c r="D68" s="104"/>
+      <c r="J68" s="101"/>
+      <c r="L68" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="M68" s="103"/>
+      <c r="N68" s="103"/>
+      <c r="O68" s="103"/>
+      <c r="P68" s="103"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="100"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="100">
+        <v>8</v>
+      </c>
+      <c r="D69" s="102"/>
+      <c r="J69" s="105"/>
+      <c r="L69" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="M69" s="103"/>
+      <c r="N69" s="103"/>
+      <c r="O69" s="103"/>
+      <c r="P69" s="103"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="100"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="100">
+        <v>9</v>
+      </c>
+      <c r="D70" s="104"/>
+      <c r="J70" s="101"/>
+      <c r="L70" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="M70" s="103"/>
+      <c r="N70" s="103"/>
+      <c r="O70" s="103"/>
+      <c r="P70" s="103"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="100"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="100">
+        <v>10</v>
+      </c>
+      <c r="D71" s="102"/>
+      <c r="J71" s="101"/>
+      <c r="L71" s="93" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="100"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="100">
+        <v>11</v>
+      </c>
+      <c r="D72" s="99"/>
+      <c r="J72" s="98"/>
+      <c r="L72" s="93" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="96" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D74" s="97" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="95" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D79" s="93" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="93" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="93" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="93" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="93" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="93" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="93" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="93" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="93" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="93" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="93" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B96" s="95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="93" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="93" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="93" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="93" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="94" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="93" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="93" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="93" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="93" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="93" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="93" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="93" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="93" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="93" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16612,7 +19288,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="20">
-        <v>28799</v>
+        <v>28785</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -16623,7 +19299,7 @@
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>48</v>
@@ -16636,7 +19312,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -16674,112 +19350,64 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19">
-        <v>19372</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1612</v>
-      </c>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="10">
-        <v>2</v>
-      </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="I5" s="14"/>
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19">
-        <v>19313</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1597</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="10">
-        <v>2</v>
-      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="I6" s="14"/>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19">
-        <v>19402</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1548</v>
-      </c>
-      <c r="E7" s="10">
-        <v>3</v>
-      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="I7" s="14"/>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19">
-        <v>31526</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1463</v>
-      </c>
-      <c r="E8" s="10">
-        <v>3</v>
-      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="I8" s="14"/>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -16817,20 +19445,16 @@
     <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16">
+      <c r="C11" s="16" t="str">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1555</v>
+        <v/>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="13">
-        <v>10</v>
-      </c>
+      <c r="E11" s="13"/>
       <c r="F11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="13">
-        <v>6</v>
-      </c>
+      <c r="G11" s="13"/>
       <c r="H11" s="3"/>
       <c r="I11" s="16" t="str">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
@@ -16859,7 +19483,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -16897,131 +19521,79 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="18">
-        <v>1328</v>
-      </c>
-      <c r="E15" s="10">
-        <v>3</v>
-      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
+      <c r="G15" s="10"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="I15" s="14"/>
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19">
-        <v>76325</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="18">
-        <v>1317</v>
-      </c>
-      <c r="E16" s="10">
-        <v>3</v>
-      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
+      <c r="G16" s="10"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="I16" s="14"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19">
-        <v>76333</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="18">
-        <v>1177</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2</v>
-      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="10">
-        <v>2</v>
-      </c>
+      <c r="G17" s="10"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="I17" s="14"/>
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19">
-        <v>76317</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="18">
-        <v>1136</v>
-      </c>
-      <c r="E18" s="12">
-        <v>2</v>
-      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="12">
-        <v>2</v>
-      </c>
+      <c r="G18" s="12"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="I18" s="14"/>
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16">
+      <c r="C19" s="16" t="str">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1239.5</v>
+        <v/>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="13">
-        <v>10</v>
-      </c>
+      <c r="E19" s="13"/>
       <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="13">
-        <v>6</v>
-      </c>
+      <c r="G19" s="13"/>
       <c r="H19" s="3"/>
       <c r="I19" s="16" t="str">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
@@ -17305,14 +19877,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17337,7 +19906,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="20">
-        <v>28813</v>
+        <v>28799</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -17348,10 +19917,10 @@
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -17361,7 +19930,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -17399,113 +19968,113 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>19372</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1612</v>
+      </c>
       <c r="E5" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="10">
-        <v>3</v>
-      </c>
-      <c r="H5" s="19">
-        <v>19372</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="18">
-        <v>1612</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>19313</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1597</v>
+      </c>
       <c r="E6" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="10">
-        <v>3</v>
-      </c>
-      <c r="H6" s="19">
-        <v>19313</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="18">
-        <v>1597</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>19402</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1548</v>
+      </c>
       <c r="E7" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="10">
-        <v>3</v>
-      </c>
-      <c r="H7" s="19">
-        <v>31526</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="18">
-        <v>1463</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>31526</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1463</v>
+      </c>
       <c r="E8" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="10">
-        <v>3</v>
-      </c>
-      <c r="H8" s="19">
-        <v>99903</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="18">
-        <v>904</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -17542,24 +20111,24 @@
     <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1555</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16">
+      <c r="I11" s="16" t="str">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1394</v>
+        <v/>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -17574,17 +20143,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -17622,39 +20191,43 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1328</v>
+      </c>
       <c r="E15" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="10">
-        <v>3</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>52</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="19"/>
       <c r="I15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="18">
-        <v>1328</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>76325</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1317</v>
+      </c>
       <c r="E16" s="10">
         <v>3</v>
       </c>
@@ -17664,93 +20237,89 @@
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="19">
-        <v>76325</v>
-      </c>
+      <c r="H16" s="19"/>
       <c r="I16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="18">
-        <v>1317</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>76333</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1177</v>
+      </c>
       <c r="E17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="10">
-        <v>3</v>
-      </c>
-      <c r="H17" s="19">
-        <v>76333</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" s="19"/>
       <c r="I17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="18">
-        <v>1177</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>76317</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1136</v>
+      </c>
       <c r="E18" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="12">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19">
-        <v>76317</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" s="19"/>
       <c r="I18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="18">
-        <v>1136</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1239.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16">
+      <c r="I19" s="16" t="str">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1239.5</v>
+        <v/>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -18030,14 +20599,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18062,7 +20628,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="20">
-        <v>28827</v>
+        <v>28813</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -18073,10 +20639,10 @@
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -18086,7 +20652,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -18124,71 +20690,67 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="19"/>
+      <c r="C5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3</v>
+      </c>
+      <c r="H5" s="19">
         <v>19372</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="18">
+      <c r="J5" s="18">
         <v>1612</v>
       </c>
-      <c r="E5" s="10">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19">
-        <v>31526</v>
-      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1463</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D6" s="18"/>
       <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
         <v>3</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>19313</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1597</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>52</v>
-      </c>
+      <c r="B7" s="19"/>
       <c r="C7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1013</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D7" s="18"/>
       <c r="E7" s="10">
         <v>1</v>
       </c>
@@ -18198,39 +20760,43 @@
       <c r="G7" s="10">
         <v>3</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>31526</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1463</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="19"/>
+      <c r="C8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
+        <v>3</v>
+      </c>
+      <c r="H8" s="19">
         <v>99903</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="18">
+      <c r="J8" s="18">
         <v>904</v>
       </c>
-      <c r="E8" s="10">
-        <v>3</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -18267,24 +20833,24 @@
     <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16">
+      <c r="C11" s="16" t="str">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1248</v>
+        <v/>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1394</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -18299,17 +20865,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -18347,15 +20913,11 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19">
-        <v>76325</v>
-      </c>
+      <c r="B15" s="19"/>
       <c r="C15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="18">
-        <v>1317</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D15" s="18"/>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -18365,117 +20927,121 @@
       <c r="G15" s="10">
         <v>3</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1328</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19">
-        <v>76333</v>
-      </c>
+      <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="18">
-        <v>1177</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D16" s="18"/>
       <c r="E16" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="10">
-        <v>2</v>
-      </c>
-      <c r="H16" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="19">
+        <v>76325</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1317</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19">
-        <v>76317</v>
-      </c>
+      <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="18">
-        <v>1136</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D17" s="18"/>
       <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
         <v>3</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>76333</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1177</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19">
-        <v>93073</v>
-      </c>
+      <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="18">
+        <v>73</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="12">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19">
+        <v>76317</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="18">
         <v>1136</v>
       </c>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12">
-        <v>3</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16">
+      <c r="C19" s="16" t="str">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1191.5</v>
+        <v/>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1239.5</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -18755,14 +21321,733 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="20">
+        <v>28827</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19">
+        <v>19372</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1612</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19">
+        <v>31526</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1463</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1013</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="19">
+        <v>99903</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="18">
+        <v>904</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="16">
+        <f>IFERROR(AVERAGE(D5:D10),"")</f>
+        <v>1248</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="13">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="13">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="16" t="str">
+        <f>IFERROR(AVERAGE(J5:J10),"")</f>
+        <v/>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="19">
+        <v>76325</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1317</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="19">
+        <v>76333</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1177</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>3</v>
+      </c>
+      <c r="B17" s="19">
+        <v>76317</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1136</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="19">
+        <v>93073</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
+        <v>3</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="16">
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v>1210</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="13">
+        <v>7</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="13">
+        <v>9</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="16" t="str">
+        <f>IFERROR(AVERAGE(J15:J18),"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>3</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>4</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="16" t="str">
+        <f>IFERROR(AVERAGE(D23:D26),"")</f>
+        <v/>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="16" t="str">
+        <f>IFERROR(AVERAGE(J23:J26),"")</f>
+        <v/>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>2</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="16" t="str">
+        <f>IFERROR(AVERAGE(D31:D34),"")</f>
+        <v/>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="16" t="str">
+        <f>IFERROR(AVERAGE(J31:J34),"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView topLeftCell="C1" workbookViewId="1">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18781,7 +22066,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>19</v>
@@ -19483,12 +22768,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -19507,7 +22791,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>19</v>
@@ -20206,14 +23490,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20232,7 +23513,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>19</v>
@@ -20933,1460 +24214,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="20">
-        <v>28911</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="10">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>19372</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="18">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10">
-        <v>3</v>
-      </c>
-      <c r="H6" s="19">
-        <v>19313</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="18">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="10">
-        <v>3</v>
-      </c>
-      <c r="H7" s="19">
-        <v>19402</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="18">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="10">
-        <v>3</v>
-      </c>
-      <c r="H8" s="19">
-        <v>31526</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="18">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
-        <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="13">
-        <v>6</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="13">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="16">
-        <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1555</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="10">
-        <v>3</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="18">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>2</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="10">
-        <v>3</v>
-      </c>
-      <c r="H16" s="19">
-        <v>76325</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="18">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>3</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="10">
-        <v>3</v>
-      </c>
-      <c r="H17" s="19">
-        <v>76333</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="18">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <v>4</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12">
-        <v>3</v>
-      </c>
-      <c r="H18" s="19">
-        <v>76317</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="18">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
-        <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="13">
-        <v>2</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="13">
-        <v>12</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="16">
-        <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1239.5</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>1</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>2</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>3</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <v>4</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
-        <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
-        <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
-      </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>1</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>2</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>3</v>
-      </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
-        <v>4</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="16" t="str">
-        <f>IFERROR(AVERAGE(D31:D34),"")</f>
-        <v/>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="16" t="str">
-        <f>IFERROR(AVERAGE(J31:J34),"")</f>
-        <v/>
-      </c>
-      <c r="J35" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="20">
-        <v>28918</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="19">
-        <v>19372</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1612</v>
-      </c>
-      <c r="E5" s="10">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="19">
-        <v>19313</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1597</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10">
-        <v>3</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="19">
-        <v>19402</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1548</v>
-      </c>
-      <c r="E7" s="10">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="19">
-        <v>31526</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1463</v>
-      </c>
-      <c r="E8" s="10">
-        <v>3</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="16">
-        <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1555</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="13">
-        <v>10</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="13">
-        <v>6</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
-        <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="18">
-        <v>1328</v>
-      </c>
-      <c r="E15" s="10">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>2</v>
-      </c>
-      <c r="B16" s="19">
-        <v>76325</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="18">
-        <v>1317</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="10">
-        <v>3</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>3</v>
-      </c>
-      <c r="B17" s="19">
-        <v>76333</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="18">
-        <v>1177</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="10">
-        <v>3</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="L17" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <v>4</v>
-      </c>
-      <c r="B18" s="19">
-        <v>76317</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="18">
-        <v>1136</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12">
-        <v>3</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="16">
-        <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1239.5</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="13">
-        <v>6</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="13">
-        <v>10</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
-        <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>1</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>2</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>3</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <v>4</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
-        <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
-        <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
-      </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>1</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>2</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>3</v>
-      </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
-        <v>4</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="16" t="str">
-        <f>IFERROR(AVERAGE(D31:D34),"")</f>
-        <v/>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="16" t="str">
-        <f>IFERROR(AVERAGE(J31:J34),"")</f>
-        <v/>
-      </c>
-      <c r="J35" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/_data/ni/ni7879/individueel_eindstand_dworp_12_7879.xlsx
+++ b/_data/ni/ni7879/individueel_eindstand_dworp_12_7879.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meneer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0AF86B15-ACF3-43FA-AFDA-246D1E612A92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90B03022-B643-4C51-84C4-F4E34821D1F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="7812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="329">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -851,9 +851,6 @@
     <t>DEEL 1</t>
   </si>
   <si>
-    <t>zo 6 jan. 2018</t>
-  </si>
-  <si>
     <t>ng</t>
   </si>
   <si>
@@ -861,6 +858,192 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>Dag Herman,</t>
+  </si>
+  <si>
+    <t>In de bijlage op het eerste en tweede tabblad staat uitvoerig beschreven dat Dworp die eerste ronde wel zal bye geweest zijn zoals jij aantoont.</t>
+  </si>
+  <si>
+    <t>Daarna is het wat uit de hand gelopen met een naadloze overgang naar mijn memoires. Ik was toen nog helder van geest…</t>
+  </si>
+  <si>
+    <t>Veel plezier met de anekdotes, het is niet eens een cursiefje.</t>
+  </si>
+  <si>
+    <t>Groetjes en vooral hartelijk dank om ons seizoen 1978-1979 te fine-tunen,</t>
+  </si>
+  <si>
+    <t>zo 6 jan. 2019 18:58</t>
+  </si>
+  <si>
+    <t>zo 6 jan. 2019 19:07</t>
+  </si>
+  <si>
+    <t>Dag Pieter en Diederik,</t>
+  </si>
+  <si>
+    <t>Op de bijlage vinden jullie alle juiste datums bij de juiste ronden.</t>
+  </si>
+  <si>
+    <t>In ronde 4 speelde Luc Vandermeersch ng (niet 1136); het gemiddelde ploegtotaal is dan 1210.</t>
+  </si>
+  <si>
+    <t>In ronde 11 speelde Luc Vandermeersch ng (niet 1136); het gemiddelde ploegtotaal is dan 1212.</t>
+  </si>
+  <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>Bij het opruimen van mijn papieren ben ik op een document gevallen. Zie bijlage. Document KGSRL.</t>
+  </si>
+  <si>
+    <t>In het seizoen 1978-79 in reeks 4D waren er elf ploegen, waarvan één bye. Toevallig ronde 1.</t>
+  </si>
+  <si>
+    <t>za 1 dec. 2018 14:48</t>
+  </si>
+  <si>
+    <t>Van de Wynkele Herman</t>
+  </si>
+  <si>
+    <t>herman.senior@belgacom.net</t>
+  </si>
+  <si>
+    <t>Eerste ronde: 22-10-1978 Dworp bye</t>
+  </si>
+  <si>
+    <t>waarschijnlijk laatste ronde 18-03-1979 (25-03-1979 is foutief)</t>
+  </si>
+  <si>
+    <t>wo 19 dec. 2018 17:21</t>
+  </si>
+  <si>
+    <t>Mijn geheugen is niet meer van het beste; ik weet niet meer wanneer ik wát, bijvoorbeeld, in 1980 heb uitgespookt.</t>
+  </si>
+  <si>
+    <t>Daarentegen, de maand maart van het fantastische jaar 1979 waarover je mailt ... die ligt nog vers in het geheugen.</t>
+  </si>
+  <si>
+    <t>In februari werd ik soldaat en een maand later werd ik overgeplaatst naar Duitsland,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naar het onooglijke Arolsen voor de kenners onder ons. </t>
+  </si>
+  <si>
+    <t>De NIC-uitslagen van 1979 heb ik moeten verzamelen zo goed en zo kwaad als het ging.</t>
+  </si>
+  <si>
+    <t>Ik gok daarbij op de bondsbladen van (Alex?) Vermandel.</t>
+  </si>
+  <si>
+    <t>Afijn, ik zal mijn archief eens vergelijken met wat de website van onze kring te bieden heeft. Geef je mij daarvoor wat tijd?</t>
+  </si>
+  <si>
+    <t>ma 31 dec. 2018 17:20</t>
+  </si>
+  <si>
+    <t>Na een reeks berekeningen ben ik opnieuw tot de conclusie gekomen dat dit vraagstuk onoplosbaar is met wiskunde en logica.</t>
+  </si>
+  <si>
+    <t>Ik heb echter wel een sterk argument om te poneren dat de eerste ronde van het seizoen 1978-1979 op 22 oktober 1978 werd betwist.</t>
+  </si>
+  <si>
+    <t>Hoe kom jij eigenlijk aan die datum? Het je bijvoorbeeld een notatieformulier met die datum?</t>
+  </si>
+  <si>
+    <t>Een visioen gekregen? In de Informator gevonden? …</t>
+  </si>
+  <si>
+    <t>di 1 jan. 2019 03:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dus: </t>
+  </si>
+  <si>
+    <t>Ronde 01
+22-10-1978</t>
+  </si>
+  <si>
+    <t>Ronde 01 22-10-1978</t>
+  </si>
+  <si>
+    <t>Ronde 02
+05-11-1978</t>
+  </si>
+  <si>
+    <t>Ronde 03
+19-11-1978</t>
+  </si>
+  <si>
+    <t>Ronde 04
+03-12-1978</t>
+  </si>
+  <si>
+    <t>Ronde 05
+07-01-1979</t>
+  </si>
+  <si>
+    <t>Ronde 06
+28-01-1979</t>
+  </si>
+  <si>
+    <t>Ronde 07
+11-02-1979</t>
+  </si>
+  <si>
+    <t>Ronde 08
+25-02-1979</t>
+  </si>
+  <si>
+    <t>Ronde 09
+04-03-1979</t>
+  </si>
+  <si>
+    <t>Ronde 10
+11-03-1979</t>
+  </si>
+  <si>
+    <t>Ronde 11
+25-03-1979</t>
+  </si>
+  <si>
+    <t>In facto begint u met ronde 2 als ronde 1 vermeld.</t>
+  </si>
+  <si>
+    <t>Dat is alles Eddy.</t>
+  </si>
+  <si>
+    <t>Mijn partijen die ik heb gevonden of beter gespeeld heb:</t>
+  </si>
+  <si>
+    <t>Hier heb ik 21-01-1979 als zesde ronde, en 18-03-1979 als  ?, maar ik betwist niet deze</t>
+  </si>
+  <si>
+    <t>data. Tenslotte lijkt me 11-03-1979 of 25-03-1979 logischer.</t>
+  </si>
+  <si>
+    <t>Alleen het uittreksel voor ronde 1.</t>
+  </si>
+  <si>
+    <t>Eddy, ik hoop hiermede te helpen, want fouten zijn rap gemaakt ook door mij.</t>
+  </si>
+  <si>
+    <t>Daar ik alles aan het opruimen ben, heb ik waarschijnlijk al mijn notatieformulieren weggegooid.</t>
+  </si>
+  <si>
+    <t>Om de juiste data te achterhalen als neutraal zal ik de voorzitter van MSV aanspreken om in de archieven van MSV te kijken.</t>
+  </si>
+  <si>
+    <t>Ronde 06
+21-01-1979</t>
+  </si>
+  <si>
+    <t>Ronde ?? 18-03-1979</t>
+  </si>
+  <si>
+    <t>zo 6 jan. 2019</t>
   </si>
 </sst>
 </file>
@@ -871,7 +1054,7 @@
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,6 +1165,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1576,12 +1767,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1872,8 +2064,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Standaard_Blad2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2212,9 +2408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2472,43 +2670,483 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>282</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>205</v>
+      <c r="C42" s="124" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>206</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>207</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C75" s="125" t="s">
+        <v>322</v>
+      </c>
+      <c r="D75" s="125"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="125"/>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C78" s="125" t="s">
+        <v>325</v>
+      </c>
+      <c r="D78" s="125"/>
+      <c r="E78" s="125"/>
+      <c r="F78" s="125"/>
+      <c r="G78" s="125"/>
+      <c r="H78" s="125"/>
+      <c r="I78" s="125"/>
+      <c r="J78" s="125"/>
+      <c r="K78" s="125"/>
+      <c r="L78" s="125"/>
+      <c r="M78" s="125"/>
+      <c r="N78" s="125"/>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C79" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" s="63"/>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C80" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="D80" s="63"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C81" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="D81" s="63"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C82" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="D82" s="63"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C84" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="D84" s="63"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C85" s="126" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" s="126"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C86" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="D86" s="63"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C87" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="D87" s="63"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C90" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="D90" s="63"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>328</v>
+      </c>
+      <c r="B92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" s="125"/>
+      <c r="E92" s="125"/>
+      <c r="F92" s="125"/>
+      <c r="G92" s="125"/>
+      <c r="H92" s="125"/>
+      <c r="I92" s="125"/>
+      <c r="J92" s="125"/>
+      <c r="K92" s="125"/>
+      <c r="L92" s="125"/>
+      <c r="M92" s="125"/>
+      <c r="N92" s="125"/>
+      <c r="O92" s="125"/>
+      <c r="P92" s="125"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C93" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="D93" s="125"/>
+      <c r="E93" s="125"/>
+      <c r="F93" s="125"/>
+      <c r="G93" s="125"/>
+      <c r="H93" s="125"/>
+      <c r="I93" s="125"/>
+      <c r="J93" s="125"/>
+      <c r="K93" s="125"/>
+      <c r="L93" s="125"/>
+      <c r="M93" s="125"/>
+      <c r="N93" s="125"/>
+      <c r="O93" s="125"/>
+      <c r="P93" s="125"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C94" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" s="125"/>
+      <c r="E94" s="125"/>
+      <c r="F94" s="125"/>
+      <c r="G94" s="125"/>
+      <c r="H94" s="125"/>
+      <c r="I94" s="125"/>
+      <c r="J94" s="125"/>
+      <c r="K94" s="125"/>
+      <c r="L94" s="125"/>
+      <c r="M94" s="125"/>
+      <c r="N94" s="125"/>
+      <c r="O94" s="125"/>
+      <c r="P94" s="125"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C95" s="125" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" s="125"/>
+      <c r="E95" s="125"/>
+      <c r="F95" s="125"/>
+      <c r="G95" s="125"/>
+      <c r="H95" s="125"/>
+      <c r="I95" s="125"/>
+      <c r="J95" s="125"/>
+      <c r="K95" s="125"/>
+      <c r="L95" s="125"/>
+      <c r="M95" s="125"/>
+      <c r="N95" s="125"/>
+      <c r="O95" s="125"/>
+      <c r="P95" s="125"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C96" s="125" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" s="125"/>
+      <c r="E96" s="125"/>
+      <c r="F96" s="125"/>
+      <c r="G96" s="125"/>
+      <c r="H96" s="125"/>
+      <c r="I96" s="125"/>
+      <c r="J96" s="125"/>
+      <c r="K96" s="125"/>
+      <c r="L96" s="125"/>
+      <c r="M96" s="125"/>
+      <c r="N96" s="125"/>
+      <c r="O96" s="125"/>
+      <c r="P96" s="125"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C97" s="125" t="s">
         <v>209</v>
       </c>
+      <c r="D97" s="125"/>
+      <c r="E97" s="125"/>
+      <c r="F97" s="125"/>
+      <c r="G97" s="125"/>
+      <c r="H97" s="125"/>
+      <c r="I97" s="125"/>
+      <c r="J97" s="125"/>
+      <c r="K97" s="125"/>
+      <c r="L97" s="125"/>
+      <c r="M97" s="125"/>
+      <c r="N97" s="125"/>
+      <c r="O97" s="125"/>
+      <c r="P97" s="125"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>276</v>
+      </c>
+      <c r="B98" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>277</v>
+      </c>
+      <c r="B103" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>281</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C42" r:id="rId1" xr:uid="{8C69B947-9BCD-463F-AA32-507C8EE29DAC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5105,7 +5743,7 @@
         <v>83</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5438,7 +6076,7 @@
         <v>31</v>
       </c>
       <c r="P1" s="63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q1" s="63"/>
       <c r="R1" s="63"/>
@@ -5457,7 +6095,7 @@
         <v>14</v>
       </c>
       <c r="P2" s="123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S2" s="77" t="s">
         <v>163</v>
@@ -21726,7 +22364,7 @@
         <v>83</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E18" s="12">
         <v>1</v>
